--- a/PhD/PhD Projects/Waterhemp/Metabolism Inhibitors/GC/Atrazine/2023/Atrazine_Absolute ED_Multiple Comparisons/Data Sheet_Atra_GC.xlsx
+++ b/PhD/PhD Projects/Waterhemp/Metabolism Inhibitors/GC/Atrazine/2023/Atrazine_Absolute ED_Multiple Comparisons/Data Sheet_Atra_GC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/GitHub/FFaleco/PhD/PhD Projects/Waterhemp/Metabolism Inhibitors/GC/Atrazine/2023 - Copy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/GitHub/FFaleco/PhD/PhD Projects/Waterhemp/Metabolism Inhibitors/GC/Atrazine/2023/Atrazine_Absolute ED_Multiple Comparisons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="228" documentId="13_ncr:1_{0D6DC71D-8738-4BAC-A91A-7810A9452D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1227336-52CA-4B48-BDC5-9C5E54BF6E5B}"/>
+  <xr:revisionPtr revIDLastSave="232" documentId="13_ncr:1_{0D6DC71D-8738-4BAC-A91A-7810A9452D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43BFB233-7095-4E41-9990-D929C0B8B339}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8BE33F48-9045-46B1-A80E-2B5333758AEB}"/>
   </bookViews>
@@ -121,9 +121,6 @@
     <t>rate</t>
   </si>
   <si>
-    <t>elevated</t>
-  </si>
-  <si>
     <t>ambient</t>
   </si>
   <si>
@@ -131,6 +128,9 @@
   </si>
   <si>
     <t>treat</t>
+  </si>
+  <si>
+    <t>increased</t>
   </si>
 </sst>
 </file>
@@ -231,6 +231,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -534,7 +538,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,7 +576,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>4</v>
@@ -593,7 +597,7 @@
         <v>7</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -614,7 +618,7 @@
       </c>
       <c r="F2" s="2" t="str">
         <f>_xlfn.CONCAT(D2, "+", E2, "+", I2)</f>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>9</v>
@@ -623,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
@@ -656,7 +660,7 @@
       </c>
       <c r="F3" s="2" t="str">
         <f t="shared" ref="F3:F66" si="0">_xlfn.CONCAT(D3, "+", E3, "+", I3)</f>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>9</v>
@@ -665,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J3" s="2">
         <v>2</v>
@@ -698,7 +702,7 @@
       </c>
       <c r="F4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>9</v>
@@ -707,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J4" s="2">
         <v>3</v>
@@ -740,7 +744,7 @@
       </c>
       <c r="F5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>9</v>
@@ -749,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J5" s="2">
         <v>4</v>
@@ -782,7 +786,7 @@
       </c>
       <c r="F6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>19</v>
@@ -791,7 +795,7 @@
         <v>17.52</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
@@ -824,7 +828,7 @@
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>19</v>
@@ -833,7 +837,7 @@
         <v>17.52</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J7" s="2">
         <v>2</v>
@@ -866,7 +870,7 @@
       </c>
       <c r="F8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>19</v>
@@ -875,7 +879,7 @@
         <v>17.52</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J8" s="2">
         <v>3</v>
@@ -908,7 +912,7 @@
       </c>
       <c r="F9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>19</v>
@@ -917,7 +921,7 @@
         <v>17.52</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J9" s="2">
         <v>4</v>
@@ -950,7 +954,7 @@
       </c>
       <c r="F10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>20</v>
@@ -959,7 +963,7 @@
         <v>35.03</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
@@ -992,7 +996,7 @@
       </c>
       <c r="F11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>20</v>
@@ -1001,7 +1005,7 @@
         <v>35.03</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J11" s="2">
         <v>2</v>
@@ -1034,7 +1038,7 @@
       </c>
       <c r="F12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>20</v>
@@ -1043,7 +1047,7 @@
         <v>35.03</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J12" s="2">
         <v>3</v>
@@ -1076,7 +1080,7 @@
       </c>
       <c r="F13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>20</v>
@@ -1085,7 +1089,7 @@
         <v>35.03</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J13" s="2">
         <v>4</v>
@@ -1118,7 +1122,7 @@
       </c>
       <c r="F14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>21</v>
@@ -1127,7 +1131,7 @@
         <v>70.06</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J14" s="2">
         <v>1</v>
@@ -1160,7 +1164,7 @@
       </c>
       <c r="F15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>21</v>
@@ -1169,7 +1173,7 @@
         <v>70.06</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J15" s="2">
         <v>2</v>
@@ -1202,7 +1206,7 @@
       </c>
       <c r="F16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>21</v>
@@ -1211,7 +1215,7 @@
         <v>70.06</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J16" s="2">
         <v>3</v>
@@ -1244,7 +1248,7 @@
       </c>
       <c r="F17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>21</v>
@@ -1253,7 +1257,7 @@
         <v>70.06</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J17" s="2">
         <v>4</v>
@@ -1286,7 +1290,7 @@
       </c>
       <c r="F18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>10</v>
@@ -1295,7 +1299,7 @@
         <v>140.12</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J18" s="2">
         <v>1</v>
@@ -1328,7 +1332,7 @@
       </c>
       <c r="F19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>10</v>
@@ -1337,7 +1341,7 @@
         <v>140.12</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J19" s="2">
         <v>2</v>
@@ -1370,7 +1374,7 @@
       </c>
       <c r="F20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>10</v>
@@ -1379,7 +1383,7 @@
         <v>140.12</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J20" s="2">
         <v>3</v>
@@ -1412,7 +1416,7 @@
       </c>
       <c r="F21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>10</v>
@@ -1421,7 +1425,7 @@
         <v>140.12</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J21" s="2">
         <v>4</v>
@@ -1454,7 +1458,7 @@
       </c>
       <c r="F22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>11</v>
@@ -1463,7 +1467,7 @@
         <v>280.25</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J22" s="2">
         <v>1</v>
@@ -1496,7 +1500,7 @@
       </c>
       <c r="F23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>11</v>
@@ -1505,7 +1509,7 @@
         <v>280.25</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J23" s="2">
         <v>2</v>
@@ -1538,7 +1542,7 @@
       </c>
       <c r="F24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>11</v>
@@ -1547,7 +1551,7 @@
         <v>280.25</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J24" s="2">
         <v>3</v>
@@ -1580,7 +1584,7 @@
       </c>
       <c r="F25" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>11</v>
@@ -1589,7 +1593,7 @@
         <v>280.25</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J25" s="2">
         <v>4</v>
@@ -1622,7 +1626,7 @@
       </c>
       <c r="F26" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>12</v>
@@ -1631,7 +1635,7 @@
         <v>560.49</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J26" s="2">
         <v>1</v>
@@ -1664,7 +1668,7 @@
       </c>
       <c r="F27" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>12</v>
@@ -1673,7 +1677,7 @@
         <v>560.49</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J27" s="2">
         <v>2</v>
@@ -1706,7 +1710,7 @@
       </c>
       <c r="F28" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>12</v>
@@ -1715,7 +1719,7 @@
         <v>560.49</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J28" s="2">
         <v>3</v>
@@ -1748,7 +1752,7 @@
       </c>
       <c r="F29" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>12</v>
@@ -1757,7 +1761,7 @@
         <v>560.49</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J29" s="2">
         <v>4</v>
@@ -1790,7 +1794,7 @@
       </c>
       <c r="F30" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>13</v>
@@ -1799,7 +1803,7 @@
         <v>1120.99</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J30" s="2">
         <v>1</v>
@@ -1832,7 +1836,7 @@
       </c>
       <c r="F31" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>13</v>
@@ -1841,7 +1845,7 @@
         <v>1120.99</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J31" s="2">
         <v>2</v>
@@ -1874,7 +1878,7 @@
       </c>
       <c r="F32" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>13</v>
@@ -1883,7 +1887,7 @@
         <v>1120.99</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J32" s="2">
         <v>3</v>
@@ -1916,7 +1920,7 @@
       </c>
       <c r="F33" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>13</v>
@@ -1925,7 +1929,7 @@
         <v>1120.99</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J33" s="2">
         <v>4</v>
@@ -1958,7 +1962,7 @@
       </c>
       <c r="F34" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>14</v>
@@ -1967,7 +1971,7 @@
         <v>2241.98</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J34" s="2">
         <v>1</v>
@@ -2000,7 +2004,7 @@
       </c>
       <c r="F35" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>14</v>
@@ -2009,7 +2013,7 @@
         <v>2241.98</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J35" s="2">
         <v>2</v>
@@ -2042,7 +2046,7 @@
       </c>
       <c r="F36" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>14</v>
@@ -2051,7 +2055,7 @@
         <v>2241.98</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J36" s="2">
         <v>3</v>
@@ -2084,7 +2088,7 @@
       </c>
       <c r="F37" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>14</v>
@@ -2093,7 +2097,7 @@
         <v>2241.98</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J37" s="2">
         <v>4</v>
@@ -2126,7 +2130,7 @@
       </c>
       <c r="F38" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>15</v>
@@ -2135,7 +2139,7 @@
         <v>4483.95</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J38" s="2">
         <v>1</v>
@@ -2168,7 +2172,7 @@
       </c>
       <c r="F39" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>15</v>
@@ -2177,7 +2181,7 @@
         <v>4483.95</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J39" s="2">
         <v>2</v>
@@ -2210,7 +2214,7 @@
       </c>
       <c r="F40" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>15</v>
@@ -2219,7 +2223,7 @@
         <v>4483.95</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J40" s="2">
         <v>3</v>
@@ -2252,7 +2256,7 @@
       </c>
       <c r="F41" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>15</v>
@@ -2261,7 +2265,7 @@
         <v>4483.95</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J41" s="2">
         <v>4</v>
@@ -2303,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J42" s="2">
         <v>1</v>
@@ -2345,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J43" s="2">
         <v>2</v>
@@ -2387,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J44" s="2">
         <v>3</v>
@@ -2429,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J45" s="2">
         <v>4</v>
@@ -2471,7 +2475,7 @@
         <v>17.52</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J46" s="2">
         <v>1</v>
@@ -2513,7 +2517,7 @@
         <v>17.52</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J47" s="2">
         <v>2</v>
@@ -2555,7 +2559,7 @@
         <v>17.52</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J48" s="2">
         <v>3</v>
@@ -2597,7 +2601,7 @@
         <v>17.52</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J49" s="2">
         <v>4</v>
@@ -2639,7 +2643,7 @@
         <v>35.03</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J50" s="2">
         <v>1</v>
@@ -2681,7 +2685,7 @@
         <v>35.03</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J51" s="2">
         <v>2</v>
@@ -2723,7 +2727,7 @@
         <v>35.03</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J52" s="2">
         <v>3</v>
@@ -2765,7 +2769,7 @@
         <v>35.03</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J53" s="2">
         <v>4</v>
@@ -2807,7 +2811,7 @@
         <v>70.06</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J54" s="2">
         <v>1</v>
@@ -2849,7 +2853,7 @@
         <v>70.06</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J55" s="2">
         <v>2</v>
@@ -2891,7 +2895,7 @@
         <v>70.06</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J56" s="2">
         <v>3</v>
@@ -2933,7 +2937,7 @@
         <v>70.06</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J57" s="2">
         <v>4</v>
@@ -2975,7 +2979,7 @@
         <v>140.12</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J58" s="2">
         <v>1</v>
@@ -3017,7 +3021,7 @@
         <v>140.12</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J59" s="2">
         <v>2</v>
@@ -3059,7 +3063,7 @@
         <v>140.12</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J60" s="2">
         <v>3</v>
@@ -3101,7 +3105,7 @@
         <v>140.12</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J61" s="2">
         <v>4</v>
@@ -3143,7 +3147,7 @@
         <v>280.25</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J62" s="2">
         <v>1</v>
@@ -3185,7 +3189,7 @@
         <v>280.25</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J63" s="2">
         <v>2</v>
@@ -3227,7 +3231,7 @@
         <v>280.25</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J64" s="2">
         <v>3</v>
@@ -3269,7 +3273,7 @@
         <v>280.25</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J65" s="2">
         <v>4</v>
@@ -3311,7 +3315,7 @@
         <v>560.49</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J66" s="2">
         <v>1</v>
@@ -3353,7 +3357,7 @@
         <v>560.49</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J67" s="2">
         <v>2</v>
@@ -3395,7 +3399,7 @@
         <v>560.49</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J68" s="2">
         <v>3</v>
@@ -3437,7 +3441,7 @@
         <v>560.49</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J69" s="2">
         <v>4</v>
@@ -3479,7 +3483,7 @@
         <v>1120.99</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J70" s="2">
         <v>1</v>
@@ -3521,7 +3525,7 @@
         <v>1120.99</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J71" s="2">
         <v>2</v>
@@ -3563,7 +3567,7 @@
         <v>1120.99</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J72" s="2">
         <v>3</v>
@@ -3605,7 +3609,7 @@
         <v>1120.99</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J73" s="2">
         <v>4</v>
@@ -3647,7 +3651,7 @@
         <v>2241.98</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J74" s="2">
         <v>1</v>
@@ -3689,7 +3693,7 @@
         <v>2241.98</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J75" s="2">
         <v>2</v>
@@ -3731,7 +3735,7 @@
         <v>2241.98</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J76" s="2">
         <v>3</v>
@@ -3773,7 +3777,7 @@
         <v>2241.98</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J77" s="2">
         <v>4</v>
@@ -3815,7 +3819,7 @@
         <v>4483.95</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J78" s="2">
         <v>1</v>
@@ -3857,7 +3861,7 @@
         <v>4483.95</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J79" s="2">
         <v>2</v>
@@ -3899,7 +3903,7 @@
         <v>4483.95</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J80" s="2">
         <v>3</v>
@@ -3941,7 +3945,7 @@
         <v>4483.95</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J81" s="2">
         <v>4</v>
@@ -3974,7 +3978,7 @@
       </c>
       <c r="F82" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>9</v>
@@ -3983,7 +3987,7 @@
         <v>0</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J82" s="2">
         <v>1</v>
@@ -4016,7 +4020,7 @@
       </c>
       <c r="F83" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>9</v>
@@ -4025,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J83" s="2">
         <v>2</v>
@@ -4052,7 +4056,7 @@
       </c>
       <c r="F84" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>9</v>
@@ -4061,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J84" s="2">
         <v>3</v>
@@ -4094,7 +4098,7 @@
       </c>
       <c r="F85" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>9</v>
@@ -4103,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J85" s="2">
         <v>4</v>
@@ -4136,7 +4140,7 @@
       </c>
       <c r="F86" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>19</v>
@@ -4145,7 +4149,7 @@
         <v>17.52</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J86" s="2">
         <v>1</v>
@@ -4178,7 +4182,7 @@
       </c>
       <c r="F87" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>19</v>
@@ -4187,7 +4191,7 @@
         <v>17.52</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J87" s="2">
         <v>2</v>
@@ -4220,7 +4224,7 @@
       </c>
       <c r="F88" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>19</v>
@@ -4229,7 +4233,7 @@
         <v>17.52</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J88" s="2">
         <v>3</v>
@@ -4262,7 +4266,7 @@
       </c>
       <c r="F89" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>19</v>
@@ -4271,7 +4275,7 @@
         <v>17.52</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J89" s="2">
         <v>4</v>
@@ -4304,7 +4308,7 @@
       </c>
       <c r="F90" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>20</v>
@@ -4313,7 +4317,7 @@
         <v>35.03</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J90" s="2">
         <v>1</v>
@@ -4346,7 +4350,7 @@
       </c>
       <c r="F91" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>20</v>
@@ -4355,7 +4359,7 @@
         <v>35.03</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J91" s="2">
         <v>2</v>
@@ -4388,7 +4392,7 @@
       </c>
       <c r="F92" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>20</v>
@@ -4397,7 +4401,7 @@
         <v>35.03</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J92" s="2">
         <v>3</v>
@@ -4430,7 +4434,7 @@
       </c>
       <c r="F93" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>20</v>
@@ -4439,7 +4443,7 @@
         <v>35.03</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J93" s="2">
         <v>4</v>
@@ -4472,7 +4476,7 @@
       </c>
       <c r="F94" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>21</v>
@@ -4481,7 +4485,7 @@
         <v>70.06</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J94" s="2">
         <v>1</v>
@@ -4514,7 +4518,7 @@
       </c>
       <c r="F95" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>21</v>
@@ -4523,7 +4527,7 @@
         <v>70.06</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J95" s="2">
         <v>2</v>
@@ -4556,7 +4560,7 @@
       </c>
       <c r="F96" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>21</v>
@@ -4565,7 +4569,7 @@
         <v>70.06</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J96" s="2">
         <v>3</v>
@@ -4598,7 +4602,7 @@
       </c>
       <c r="F97" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>21</v>
@@ -4607,7 +4611,7 @@
         <v>70.06</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J97" s="2">
         <v>4</v>
@@ -4640,7 +4644,7 @@
       </c>
       <c r="F98" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>10</v>
@@ -4649,7 +4653,7 @@
         <v>140.12</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J98" s="2">
         <v>1</v>
@@ -4682,7 +4686,7 @@
       </c>
       <c r="F99" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>10</v>
@@ -4691,7 +4695,7 @@
         <v>140.12</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J99" s="2">
         <v>2</v>
@@ -4724,7 +4728,7 @@
       </c>
       <c r="F100" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>10</v>
@@ -4733,7 +4737,7 @@
         <v>140.12</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J100" s="2">
         <v>3</v>
@@ -4766,7 +4770,7 @@
       </c>
       <c r="F101" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>10</v>
@@ -4775,7 +4779,7 @@
         <v>140.12</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J101" s="2">
         <v>4</v>
@@ -4808,7 +4812,7 @@
       </c>
       <c r="F102" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>11</v>
@@ -4817,7 +4821,7 @@
         <v>280.25</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J102" s="2">
         <v>1</v>
@@ -4850,7 +4854,7 @@
       </c>
       <c r="F103" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>11</v>
@@ -4859,7 +4863,7 @@
         <v>280.25</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J103" s="2">
         <v>2</v>
@@ -4892,7 +4896,7 @@
       </c>
       <c r="F104" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>11</v>
@@ -4901,7 +4905,7 @@
         <v>280.25</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J104" s="2">
         <v>3</v>
@@ -4934,7 +4938,7 @@
       </c>
       <c r="F105" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>11</v>
@@ -4943,7 +4947,7 @@
         <v>280.25</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J105" s="2">
         <v>4</v>
@@ -4976,7 +4980,7 @@
       </c>
       <c r="F106" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>12</v>
@@ -4985,7 +4989,7 @@
         <v>560.49</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J106" s="2">
         <v>1</v>
@@ -5018,7 +5022,7 @@
       </c>
       <c r="F107" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>12</v>
@@ -5027,7 +5031,7 @@
         <v>560.49</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J107" s="2">
         <v>2</v>
@@ -5060,7 +5064,7 @@
       </c>
       <c r="F108" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>12</v>
@@ -5069,7 +5073,7 @@
         <v>560.49</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J108" s="2">
         <v>3</v>
@@ -5102,7 +5106,7 @@
       </c>
       <c r="F109" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>12</v>
@@ -5111,7 +5115,7 @@
         <v>560.49</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J109" s="2">
         <v>4</v>
@@ -5144,7 +5148,7 @@
       </c>
       <c r="F110" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>13</v>
@@ -5153,7 +5157,7 @@
         <v>1120.99</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J110" s="2">
         <v>1</v>
@@ -5186,7 +5190,7 @@
       </c>
       <c r="F111" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>13</v>
@@ -5195,7 +5199,7 @@
         <v>1120.99</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J111" s="2">
         <v>2</v>
@@ -5228,7 +5232,7 @@
       </c>
       <c r="F112" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>13</v>
@@ -5237,7 +5241,7 @@
         <v>1120.99</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J112" s="2">
         <v>3</v>
@@ -5270,7 +5274,7 @@
       </c>
       <c r="F113" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>13</v>
@@ -5279,7 +5283,7 @@
         <v>1120.99</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J113" s="2">
         <v>4</v>
@@ -5312,7 +5316,7 @@
       </c>
       <c r="F114" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>14</v>
@@ -5321,7 +5325,7 @@
         <v>2241.98</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J114" s="2">
         <v>1</v>
@@ -5354,7 +5358,7 @@
       </c>
       <c r="F115" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>14</v>
@@ -5363,7 +5367,7 @@
         <v>2241.98</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J115" s="2">
         <v>2</v>
@@ -5396,7 +5400,7 @@
       </c>
       <c r="F116" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>14</v>
@@ -5405,7 +5409,7 @@
         <v>2241.98</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J116" s="2">
         <v>3</v>
@@ -5438,7 +5442,7 @@
       </c>
       <c r="F117" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>14</v>
@@ -5447,7 +5451,7 @@
         <v>2241.98</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J117" s="2">
         <v>4</v>
@@ -5480,7 +5484,7 @@
       </c>
       <c r="F118" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>15</v>
@@ -5489,7 +5493,7 @@
         <v>4483.95</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J118" s="2">
         <v>1</v>
@@ -5522,7 +5526,7 @@
       </c>
       <c r="F119" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>15</v>
@@ -5531,7 +5535,7 @@
         <v>4483.95</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J119" s="2">
         <v>2</v>
@@ -5564,7 +5568,7 @@
       </c>
       <c r="F120" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>15</v>
@@ -5573,7 +5577,7 @@
         <v>4483.95</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J120" s="2">
         <v>3</v>
@@ -5606,7 +5610,7 @@
       </c>
       <c r="F121" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>15</v>
@@ -5615,7 +5619,7 @@
         <v>4483.95</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J121" s="2">
         <v>4</v>
@@ -5648,7 +5652,7 @@
       </c>
       <c r="F122" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>9</v>
@@ -5657,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J122" s="2">
         <v>1</v>
@@ -5690,7 +5694,7 @@
       </c>
       <c r="F123" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>9</v>
@@ -5699,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J123" s="2">
         <v>2</v>
@@ -5732,7 +5736,7 @@
       </c>
       <c r="F124" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>9</v>
@@ -5741,7 +5745,7 @@
         <v>0</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J124" s="2">
         <v>3</v>
@@ -5774,7 +5778,7 @@
       </c>
       <c r="F125" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>9</v>
@@ -5783,7 +5787,7 @@
         <v>0</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J125" s="2">
         <v>4</v>
@@ -5816,7 +5820,7 @@
       </c>
       <c r="F126" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>19</v>
@@ -5825,7 +5829,7 @@
         <v>17.52</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J126" s="2">
         <v>1</v>
@@ -5858,7 +5862,7 @@
       </c>
       <c r="F127" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>19</v>
@@ -5867,7 +5871,7 @@
         <v>17.52</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J127" s="2">
         <v>2</v>
@@ -5900,7 +5904,7 @@
       </c>
       <c r="F128" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>19</v>
@@ -5909,7 +5913,7 @@
         <v>17.52</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J128" s="2">
         <v>3</v>
@@ -5942,7 +5946,7 @@
       </c>
       <c r="F129" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>19</v>
@@ -5951,7 +5955,7 @@
         <v>17.52</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J129" s="2">
         <v>4</v>
@@ -5984,7 +5988,7 @@
       </c>
       <c r="F130" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>20</v>
@@ -5993,7 +5997,7 @@
         <v>35.03</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J130" s="2">
         <v>1</v>
@@ -6026,7 +6030,7 @@
       </c>
       <c r="F131" s="2" t="str">
         <f t="shared" ref="F131:F194" si="2">_xlfn.CONCAT(D131, "+", E131, "+", I131)</f>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>20</v>
@@ -6035,7 +6039,7 @@
         <v>35.03</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J131" s="2">
         <v>2</v>
@@ -6068,7 +6072,7 @@
       </c>
       <c r="F132" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>20</v>
@@ -6077,7 +6081,7 @@
         <v>35.03</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J132" s="2">
         <v>3</v>
@@ -6110,7 +6114,7 @@
       </c>
       <c r="F133" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>20</v>
@@ -6119,7 +6123,7 @@
         <v>35.03</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J133" s="2">
         <v>4</v>
@@ -6152,7 +6156,7 @@
       </c>
       <c r="F134" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>21</v>
@@ -6161,7 +6165,7 @@
         <v>70.06</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J134" s="2">
         <v>1</v>
@@ -6194,7 +6198,7 @@
       </c>
       <c r="F135" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>21</v>
@@ -6203,7 +6207,7 @@
         <v>70.06</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J135" s="2">
         <v>2</v>
@@ -6236,7 +6240,7 @@
       </c>
       <c r="F136" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>21</v>
@@ -6245,7 +6249,7 @@
         <v>70.06</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J136" s="2">
         <v>3</v>
@@ -6278,7 +6282,7 @@
       </c>
       <c r="F137" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>21</v>
@@ -6287,7 +6291,7 @@
         <v>70.06</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J137" s="2">
         <v>4</v>
@@ -6320,7 +6324,7 @@
       </c>
       <c r="F138" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>10</v>
@@ -6329,7 +6333,7 @@
         <v>140.12</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J138" s="2">
         <v>1</v>
@@ -6362,7 +6366,7 @@
       </c>
       <c r="F139" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>10</v>
@@ -6371,7 +6375,7 @@
         <v>140.12</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J139" s="2">
         <v>2</v>
@@ -6404,7 +6408,7 @@
       </c>
       <c r="F140" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>10</v>
@@ -6413,7 +6417,7 @@
         <v>140.12</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J140" s="2">
         <v>3</v>
@@ -6446,7 +6450,7 @@
       </c>
       <c r="F141" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>10</v>
@@ -6455,7 +6459,7 @@
         <v>140.12</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J141" s="2">
         <v>4</v>
@@ -6488,7 +6492,7 @@
       </c>
       <c r="F142" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>11</v>
@@ -6497,7 +6501,7 @@
         <v>280.25</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J142" s="2">
         <v>1</v>
@@ -6530,7 +6534,7 @@
       </c>
       <c r="F143" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>11</v>
@@ -6539,7 +6543,7 @@
         <v>280.25</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J143" s="2">
         <v>2</v>
@@ -6572,7 +6576,7 @@
       </c>
       <c r="F144" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>11</v>
@@ -6581,7 +6585,7 @@
         <v>280.25</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J144" s="2">
         <v>3</v>
@@ -6614,7 +6618,7 @@
       </c>
       <c r="F145" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>11</v>
@@ -6623,7 +6627,7 @@
         <v>280.25</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J145" s="2">
         <v>4</v>
@@ -6656,7 +6660,7 @@
       </c>
       <c r="F146" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>12</v>
@@ -6665,7 +6669,7 @@
         <v>560.49</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J146" s="2">
         <v>1</v>
@@ -6698,7 +6702,7 @@
       </c>
       <c r="F147" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>12</v>
@@ -6707,7 +6711,7 @@
         <v>560.49</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J147" s="2">
         <v>2</v>
@@ -6740,7 +6744,7 @@
       </c>
       <c r="F148" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>12</v>
@@ -6749,7 +6753,7 @@
         <v>560.49</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J148" s="2">
         <v>3</v>
@@ -6782,7 +6786,7 @@
       </c>
       <c r="F149" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>12</v>
@@ -6791,7 +6795,7 @@
         <v>560.49</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J149" s="2">
         <v>4</v>
@@ -6824,7 +6828,7 @@
       </c>
       <c r="F150" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>13</v>
@@ -6833,7 +6837,7 @@
         <v>1120.99</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J150" s="2">
         <v>1</v>
@@ -6866,7 +6870,7 @@
       </c>
       <c r="F151" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>13</v>
@@ -6875,7 +6879,7 @@
         <v>1120.99</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J151" s="2">
         <v>2</v>
@@ -6908,7 +6912,7 @@
       </c>
       <c r="F152" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>13</v>
@@ -6917,7 +6921,7 @@
         <v>1120.99</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J152" s="2">
         <v>3</v>
@@ -6950,7 +6954,7 @@
       </c>
       <c r="F153" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>13</v>
@@ -6959,7 +6963,7 @@
         <v>1120.99</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J153" s="2">
         <v>4</v>
@@ -6992,7 +6996,7 @@
       </c>
       <c r="F154" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>14</v>
@@ -7001,7 +7005,7 @@
         <v>2241.98</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J154" s="2">
         <v>1</v>
@@ -7034,7 +7038,7 @@
       </c>
       <c r="F155" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>14</v>
@@ -7043,7 +7047,7 @@
         <v>2241.98</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J155" s="2">
         <v>2</v>
@@ -7076,7 +7080,7 @@
       </c>
       <c r="F156" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>14</v>
@@ -7085,7 +7089,7 @@
         <v>2241.98</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J156" s="2">
         <v>3</v>
@@ -7118,7 +7122,7 @@
       </c>
       <c r="F157" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>14</v>
@@ -7127,7 +7131,7 @@
         <v>2241.98</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J157" s="2">
         <v>4</v>
@@ -7160,7 +7164,7 @@
       </c>
       <c r="F158" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>15</v>
@@ -7169,7 +7173,7 @@
         <v>4483.95</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J158" s="2">
         <v>1</v>
@@ -7202,7 +7206,7 @@
       </c>
       <c r="F159" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>15</v>
@@ -7211,7 +7215,7 @@
         <v>4483.95</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J159" s="2">
         <v>2</v>
@@ -7244,7 +7248,7 @@
       </c>
       <c r="F160" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G160" s="2" t="s">
         <v>15</v>
@@ -7253,7 +7257,7 @@
         <v>4483.95</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J160" s="2">
         <v>3</v>
@@ -7286,7 +7290,7 @@
       </c>
       <c r="F161" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>15</v>
@@ -7295,7 +7299,7 @@
         <v>4483.95</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J161" s="2">
         <v>4</v>
@@ -7328,7 +7332,7 @@
       </c>
       <c r="F162" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>9</v>
@@ -7337,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J162" s="2">
         <v>1</v>
@@ -7370,7 +7374,7 @@
       </c>
       <c r="F163" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>9</v>
@@ -7379,7 +7383,7 @@
         <v>0</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J163" s="2">
         <v>2</v>
@@ -7412,7 +7416,7 @@
       </c>
       <c r="F164" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>9</v>
@@ -7421,7 +7425,7 @@
         <v>0</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J164" s="2">
         <v>3</v>
@@ -7454,7 +7458,7 @@
       </c>
       <c r="F165" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G165" s="2" t="s">
         <v>9</v>
@@ -7463,7 +7467,7 @@
         <v>0</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J165" s="2">
         <v>4</v>
@@ -7496,7 +7500,7 @@
       </c>
       <c r="F166" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G166" s="2" t="s">
         <v>19</v>
@@ -7505,7 +7509,7 @@
         <v>17.52</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J166" s="2">
         <v>1</v>
@@ -7538,7 +7542,7 @@
       </c>
       <c r="F167" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>19</v>
@@ -7547,7 +7551,7 @@
         <v>17.52</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J167" s="2">
         <v>2</v>
@@ -7580,7 +7584,7 @@
       </c>
       <c r="F168" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G168" s="2" t="s">
         <v>19</v>
@@ -7589,7 +7593,7 @@
         <v>17.52</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J168" s="2">
         <v>3</v>
@@ -7622,7 +7626,7 @@
       </c>
       <c r="F169" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G169" s="2" t="s">
         <v>19</v>
@@ -7631,7 +7635,7 @@
         <v>17.52</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J169" s="2">
         <v>4</v>
@@ -7664,7 +7668,7 @@
       </c>
       <c r="F170" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G170" s="2" t="s">
         <v>20</v>
@@ -7673,7 +7677,7 @@
         <v>35.03</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J170" s="2">
         <v>1</v>
@@ -7706,7 +7710,7 @@
       </c>
       <c r="F171" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G171" s="2" t="s">
         <v>20</v>
@@ -7715,7 +7719,7 @@
         <v>35.03</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J171" s="2">
         <v>2</v>
@@ -7748,7 +7752,7 @@
       </c>
       <c r="F172" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G172" s="2" t="s">
         <v>20</v>
@@ -7757,7 +7761,7 @@
         <v>35.03</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J172" s="2">
         <v>3</v>
@@ -7790,7 +7794,7 @@
       </c>
       <c r="F173" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G173" s="2" t="s">
         <v>20</v>
@@ -7799,7 +7803,7 @@
         <v>35.03</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J173" s="2">
         <v>4</v>
@@ -7832,7 +7836,7 @@
       </c>
       <c r="F174" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G174" s="2" t="s">
         <v>21</v>
@@ -7841,7 +7845,7 @@
         <v>70.06</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J174" s="2">
         <v>1</v>
@@ -7874,7 +7878,7 @@
       </c>
       <c r="F175" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>21</v>
@@ -7883,7 +7887,7 @@
         <v>70.06</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J175" s="2">
         <v>2</v>
@@ -7916,7 +7920,7 @@
       </c>
       <c r="F176" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G176" s="2" t="s">
         <v>21</v>
@@ -7925,7 +7929,7 @@
         <v>70.06</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J176" s="2">
         <v>3</v>
@@ -7958,7 +7962,7 @@
       </c>
       <c r="F177" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G177" s="2" t="s">
         <v>21</v>
@@ -7967,7 +7971,7 @@
         <v>70.06</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J177" s="2">
         <v>4</v>
@@ -8000,7 +8004,7 @@
       </c>
       <c r="F178" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>10</v>
@@ -8009,7 +8013,7 @@
         <v>140.12</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J178" s="2">
         <v>1</v>
@@ -8042,7 +8046,7 @@
       </c>
       <c r="F179" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>10</v>
@@ -8051,7 +8055,7 @@
         <v>140.12</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J179" s="2">
         <v>2</v>
@@ -8084,7 +8088,7 @@
       </c>
       <c r="F180" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>10</v>
@@ -8093,7 +8097,7 @@
         <v>140.12</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J180" s="2">
         <v>3</v>
@@ -8126,7 +8130,7 @@
       </c>
       <c r="F181" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>10</v>
@@ -8135,7 +8139,7 @@
         <v>140.12</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J181" s="2">
         <v>4</v>
@@ -8168,7 +8172,7 @@
       </c>
       <c r="F182" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>11</v>
@@ -8177,7 +8181,7 @@
         <v>280.25</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J182" s="2">
         <v>1</v>
@@ -8210,7 +8214,7 @@
       </c>
       <c r="F183" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>11</v>
@@ -8219,7 +8223,7 @@
         <v>280.25</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J183" s="2">
         <v>2</v>
@@ -8252,7 +8256,7 @@
       </c>
       <c r="F184" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>11</v>
@@ -8261,7 +8265,7 @@
         <v>280.25</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J184" s="2">
         <v>3</v>
@@ -8294,7 +8298,7 @@
       </c>
       <c r="F185" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>11</v>
@@ -8303,7 +8307,7 @@
         <v>280.25</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J185" s="2">
         <v>4</v>
@@ -8336,7 +8340,7 @@
       </c>
       <c r="F186" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>12</v>
@@ -8345,7 +8349,7 @@
         <v>560.49</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J186" s="2">
         <v>1</v>
@@ -8378,7 +8382,7 @@
       </c>
       <c r="F187" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G187" s="2" t="s">
         <v>12</v>
@@ -8387,7 +8391,7 @@
         <v>560.49</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J187" s="2">
         <v>2</v>
@@ -8420,7 +8424,7 @@
       </c>
       <c r="F188" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>12</v>
@@ -8429,7 +8433,7 @@
         <v>560.49</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J188" s="2">
         <v>3</v>
@@ -8462,7 +8466,7 @@
       </c>
       <c r="F189" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G189" s="2" t="s">
         <v>12</v>
@@ -8471,7 +8475,7 @@
         <v>560.49</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J189" s="2">
         <v>4</v>
@@ -8504,7 +8508,7 @@
       </c>
       <c r="F190" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G190" s="2" t="s">
         <v>13</v>
@@ -8513,7 +8517,7 @@
         <v>1120.99</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J190" s="2">
         <v>1</v>
@@ -8546,7 +8550,7 @@
       </c>
       <c r="F191" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>13</v>
@@ -8555,7 +8559,7 @@
         <v>1120.99</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J191" s="2">
         <v>2</v>
@@ -8588,7 +8592,7 @@
       </c>
       <c r="F192" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G192" s="2" t="s">
         <v>13</v>
@@ -8597,7 +8601,7 @@
         <v>1120.99</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J192" s="2">
         <v>3</v>
@@ -8630,7 +8634,7 @@
       </c>
       <c r="F193" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G193" s="2" t="s">
         <v>13</v>
@@ -8639,7 +8643,7 @@
         <v>1120.99</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J193" s="2">
         <v>4</v>
@@ -8672,7 +8676,7 @@
       </c>
       <c r="F194" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G194" s="2" t="s">
         <v>14</v>
@@ -8681,7 +8685,7 @@
         <v>2241.98</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J194" s="2">
         <v>1</v>
@@ -8714,7 +8718,7 @@
       </c>
       <c r="F195" s="2" t="str">
         <f t="shared" ref="F195:F258" si="3">_xlfn.CONCAT(D195, "+", E195, "+", I195)</f>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G195" s="2" t="s">
         <v>14</v>
@@ -8723,7 +8727,7 @@
         <v>2241.98</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J195" s="2">
         <v>2</v>
@@ -8756,7 +8760,7 @@
       </c>
       <c r="F196" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G196" s="2" t="s">
         <v>14</v>
@@ -8765,7 +8769,7 @@
         <v>2241.98</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J196" s="2">
         <v>3</v>
@@ -8798,7 +8802,7 @@
       </c>
       <c r="F197" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G197" s="2" t="s">
         <v>14</v>
@@ -8807,7 +8811,7 @@
         <v>2241.98</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J197" s="2">
         <v>4</v>
@@ -8840,7 +8844,7 @@
       </c>
       <c r="F198" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G198" s="2" t="s">
         <v>15</v>
@@ -8849,7 +8853,7 @@
         <v>4483.95</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J198" s="2">
         <v>1</v>
@@ -8882,7 +8886,7 @@
       </c>
       <c r="F199" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G199" s="2" t="s">
         <v>15</v>
@@ -8891,7 +8895,7 @@
         <v>4483.95</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J199" s="2">
         <v>2</v>
@@ -8924,7 +8928,7 @@
       </c>
       <c r="F200" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G200" s="2" t="s">
         <v>15</v>
@@ -8933,7 +8937,7 @@
         <v>4483.95</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J200" s="2">
         <v>3</v>
@@ -8966,7 +8970,7 @@
       </c>
       <c r="F201" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G201" s="2" t="s">
         <v>15</v>
@@ -8975,7 +8979,7 @@
         <v>4483.95</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J201" s="2">
         <v>4</v>
@@ -9017,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J202" s="2">
         <v>1</v>
@@ -9059,7 +9063,7 @@
         <v>0</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J203" s="2">
         <v>2</v>
@@ -9101,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J204" s="2">
         <v>3</v>
@@ -9143,7 +9147,7 @@
         <v>0</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J205" s="2">
         <v>4</v>
@@ -9185,7 +9189,7 @@
         <v>17.52</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J206" s="2">
         <v>1</v>
@@ -9227,7 +9231,7 @@
         <v>17.52</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J207" s="2">
         <v>2</v>
@@ -9269,7 +9273,7 @@
         <v>17.52</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J208" s="2">
         <v>3</v>
@@ -9311,7 +9315,7 @@
         <v>17.52</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J209" s="2">
         <v>4</v>
@@ -9353,7 +9357,7 @@
         <v>35.03</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J210" s="2">
         <v>1</v>
@@ -9395,7 +9399,7 @@
         <v>35.03</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J211" s="2">
         <v>2</v>
@@ -9437,7 +9441,7 @@
         <v>35.03</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J212" s="2">
         <v>3</v>
@@ -9479,7 +9483,7 @@
         <v>35.03</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J213" s="2">
         <v>4</v>
@@ -9521,7 +9525,7 @@
         <v>70.06</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J214" s="2">
         <v>1</v>
@@ -9563,7 +9567,7 @@
         <v>70.06</v>
       </c>
       <c r="I215" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J215" s="2">
         <v>2</v>
@@ -9605,7 +9609,7 @@
         <v>70.06</v>
       </c>
       <c r="I216" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J216" s="2">
         <v>3</v>
@@ -9647,7 +9651,7 @@
         <v>70.06</v>
       </c>
       <c r="I217" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J217" s="2">
         <v>4</v>
@@ -9689,7 +9693,7 @@
         <v>140.12</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J218" s="2">
         <v>1</v>
@@ -9731,7 +9735,7 @@
         <v>140.12</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J219" s="2">
         <v>2</v>
@@ -9773,7 +9777,7 @@
         <v>140.12</v>
       </c>
       <c r="I220" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J220" s="2">
         <v>3</v>
@@ -9815,7 +9819,7 @@
         <v>140.12</v>
       </c>
       <c r="I221" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J221" s="2">
         <v>4</v>
@@ -9857,7 +9861,7 @@
         <v>280.25</v>
       </c>
       <c r="I222" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J222" s="2">
         <v>1</v>
@@ -9899,7 +9903,7 @@
         <v>280.25</v>
       </c>
       <c r="I223" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J223" s="2">
         <v>2</v>
@@ -9941,7 +9945,7 @@
         <v>280.25</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J224" s="2">
         <v>3</v>
@@ -9983,7 +9987,7 @@
         <v>280.25</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J225" s="2">
         <v>4</v>
@@ -10025,7 +10029,7 @@
         <v>560.49</v>
       </c>
       <c r="I226" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J226" s="2">
         <v>1</v>
@@ -10067,7 +10071,7 @@
         <v>560.49</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J227" s="2">
         <v>2</v>
@@ -10109,7 +10113,7 @@
         <v>560.49</v>
       </c>
       <c r="I228" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J228" s="2">
         <v>3</v>
@@ -10151,7 +10155,7 @@
         <v>560.49</v>
       </c>
       <c r="I229" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J229" s="2">
         <v>4</v>
@@ -10193,7 +10197,7 @@
         <v>1120.99</v>
       </c>
       <c r="I230" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J230" s="2">
         <v>1</v>
@@ -10235,7 +10239,7 @@
         <v>1120.99</v>
       </c>
       <c r="I231" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J231" s="2">
         <v>2</v>
@@ -10277,7 +10281,7 @@
         <v>1120.99</v>
       </c>
       <c r="I232" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J232" s="2">
         <v>3</v>
@@ -10319,7 +10323,7 @@
         <v>1120.99</v>
       </c>
       <c r="I233" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J233" s="2">
         <v>4</v>
@@ -10361,7 +10365,7 @@
         <v>2241.98</v>
       </c>
       <c r="I234" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J234" s="2">
         <v>1</v>
@@ -10403,7 +10407,7 @@
         <v>2241.98</v>
       </c>
       <c r="I235" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J235" s="2">
         <v>2</v>
@@ -10445,7 +10449,7 @@
         <v>2241.98</v>
       </c>
       <c r="I236" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J236" s="2">
         <v>3</v>
@@ -10487,7 +10491,7 @@
         <v>2241.98</v>
       </c>
       <c r="I237" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J237" s="2">
         <v>4</v>
@@ -10529,7 +10533,7 @@
         <v>4483.95</v>
       </c>
       <c r="I238" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J238" s="2">
         <v>1</v>
@@ -10571,7 +10575,7 @@
         <v>4483.95</v>
       </c>
       <c r="I239" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J239" s="2">
         <v>2</v>
@@ -10613,7 +10617,7 @@
         <v>4483.95</v>
       </c>
       <c r="I240" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J240" s="2">
         <v>3</v>
@@ -10655,7 +10659,7 @@
         <v>4483.95</v>
       </c>
       <c r="I241" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J241" s="2">
         <v>4</v>
@@ -10697,7 +10701,7 @@
         <v>0</v>
       </c>
       <c r="I242" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J242" s="2">
         <v>1</v>
@@ -10739,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="I243" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J243" s="2">
         <v>2</v>
@@ -10781,7 +10785,7 @@
         <v>0</v>
       </c>
       <c r="I244" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J244" s="2">
         <v>3</v>
@@ -10823,7 +10827,7 @@
         <v>0</v>
       </c>
       <c r="I245" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J245" s="2">
         <v>4</v>
@@ -10865,7 +10869,7 @@
         <v>17.52</v>
       </c>
       <c r="I246" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J246" s="2">
         <v>1</v>
@@ -10907,7 +10911,7 @@
         <v>17.52</v>
       </c>
       <c r="I247" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J247" s="2">
         <v>2</v>
@@ -10949,7 +10953,7 @@
         <v>17.52</v>
       </c>
       <c r="I248" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J248" s="2">
         <v>3</v>
@@ -10991,7 +10995,7 @@
         <v>17.52</v>
       </c>
       <c r="I249" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J249" s="2">
         <v>4</v>
@@ -11033,7 +11037,7 @@
         <v>35.03</v>
       </c>
       <c r="I250" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J250" s="2">
         <v>1</v>
@@ -11075,7 +11079,7 @@
         <v>35.03</v>
       </c>
       <c r="I251" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J251" s="2">
         <v>2</v>
@@ -11117,7 +11121,7 @@
         <v>35.03</v>
       </c>
       <c r="I252" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J252" s="2">
         <v>3</v>
@@ -11159,7 +11163,7 @@
         <v>35.03</v>
       </c>
       <c r="I253" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J253" s="2">
         <v>4</v>
@@ -11201,7 +11205,7 @@
         <v>70.06</v>
       </c>
       <c r="I254" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J254" s="2">
         <v>1</v>
@@ -11243,7 +11247,7 @@
         <v>70.06</v>
       </c>
       <c r="I255" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J255" s="2">
         <v>2</v>
@@ -11285,7 +11289,7 @@
         <v>70.06</v>
       </c>
       <c r="I256" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J256" s="2">
         <v>3</v>
@@ -11327,7 +11331,7 @@
         <v>70.06</v>
       </c>
       <c r="I257" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J257" s="2">
         <v>4</v>
@@ -11369,7 +11373,7 @@
         <v>140.12</v>
       </c>
       <c r="I258" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J258" s="2">
         <v>1</v>
@@ -11411,7 +11415,7 @@
         <v>140.12</v>
       </c>
       <c r="I259" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J259" s="2">
         <v>2</v>
@@ -11453,7 +11457,7 @@
         <v>140.12</v>
       </c>
       <c r="I260" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J260" s="2">
         <v>3</v>
@@ -11495,7 +11499,7 @@
         <v>140.12</v>
       </c>
       <c r="I261" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J261" s="2">
         <v>4</v>
@@ -11537,7 +11541,7 @@
         <v>280.25</v>
       </c>
       <c r="I262" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J262" s="2">
         <v>1</v>
@@ -11579,7 +11583,7 @@
         <v>280.25</v>
       </c>
       <c r="I263" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J263" s="2">
         <v>2</v>
@@ -11621,7 +11625,7 @@
         <v>280.25</v>
       </c>
       <c r="I264" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J264" s="2">
         <v>3</v>
@@ -11663,7 +11667,7 @@
         <v>280.25</v>
       </c>
       <c r="I265" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J265" s="2">
         <v>4</v>
@@ -11705,7 +11709,7 @@
         <v>560.49</v>
       </c>
       <c r="I266" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J266" s="2">
         <v>1</v>
@@ -11747,7 +11751,7 @@
         <v>560.49</v>
       </c>
       <c r="I267" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J267" s="2">
         <v>2</v>
@@ -11789,7 +11793,7 @@
         <v>560.49</v>
       </c>
       <c r="I268" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J268" s="2">
         <v>3</v>
@@ -11831,7 +11835,7 @@
         <v>560.49</v>
       </c>
       <c r="I269" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J269" s="2">
         <v>4</v>
@@ -11873,7 +11877,7 @@
         <v>1120.99</v>
       </c>
       <c r="I270" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J270" s="2">
         <v>1</v>
@@ -11915,7 +11919,7 @@
         <v>1120.99</v>
       </c>
       <c r="I271" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J271" s="2">
         <v>2</v>
@@ -11957,7 +11961,7 @@
         <v>1120.99</v>
       </c>
       <c r="I272" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J272" s="2">
         <v>3</v>
@@ -11999,7 +12003,7 @@
         <v>1120.99</v>
       </c>
       <c r="I273" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J273" s="2">
         <v>4</v>
@@ -12041,7 +12045,7 @@
         <v>2241.98</v>
       </c>
       <c r="I274" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J274" s="2">
         <v>1</v>
@@ -12083,7 +12087,7 @@
         <v>2241.98</v>
       </c>
       <c r="I275" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J275" s="2">
         <v>2</v>
@@ -12125,7 +12129,7 @@
         <v>2241.98</v>
       </c>
       <c r="I276" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J276" s="2">
         <v>3</v>
@@ -12167,7 +12171,7 @@
         <v>2241.98</v>
       </c>
       <c r="I277" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J277" s="2">
         <v>4</v>
@@ -12209,7 +12213,7 @@
         <v>4483.95</v>
       </c>
       <c r="I278" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J278" s="2">
         <v>1</v>
@@ -12251,7 +12255,7 @@
         <v>4483.95</v>
       </c>
       <c r="I279" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J279" s="2">
         <v>2</v>
@@ -12293,7 +12297,7 @@
         <v>4483.95</v>
       </c>
       <c r="I280" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J280" s="2">
         <v>3</v>
@@ -12335,7 +12339,7 @@
         <v>4483.95</v>
       </c>
       <c r="I281" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J281" s="2">
         <v>4</v>
@@ -12377,7 +12381,7 @@
         <v>0</v>
       </c>
       <c r="I282" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J282" s="2">
         <v>1</v>
@@ -12419,7 +12423,7 @@
         <v>0</v>
       </c>
       <c r="I283" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J283" s="2">
         <v>2</v>
@@ -12461,7 +12465,7 @@
         <v>0</v>
       </c>
       <c r="I284" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J284" s="2">
         <v>3</v>
@@ -12503,7 +12507,7 @@
         <v>0</v>
       </c>
       <c r="I285" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J285" s="2">
         <v>4</v>
@@ -12545,7 +12549,7 @@
         <v>17.52</v>
       </c>
       <c r="I286" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J286" s="2">
         <v>1</v>
@@ -12587,7 +12591,7 @@
         <v>17.52</v>
       </c>
       <c r="I287" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J287" s="2">
         <v>2</v>
@@ -12629,7 +12633,7 @@
         <v>17.52</v>
       </c>
       <c r="I288" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J288" s="2">
         <v>3</v>
@@ -12671,7 +12675,7 @@
         <v>17.52</v>
       </c>
       <c r="I289" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J289" s="2">
         <v>4</v>
@@ -12713,7 +12717,7 @@
         <v>35.03</v>
       </c>
       <c r="I290" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J290" s="2">
         <v>1</v>
@@ -12755,7 +12759,7 @@
         <v>35.03</v>
       </c>
       <c r="I291" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J291" s="2">
         <v>2</v>
@@ -12797,7 +12801,7 @@
         <v>35.03</v>
       </c>
       <c r="I292" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J292" s="2">
         <v>3</v>
@@ -12839,7 +12843,7 @@
         <v>35.03</v>
       </c>
       <c r="I293" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J293" s="2">
         <v>4</v>
@@ -12881,7 +12885,7 @@
         <v>70.06</v>
       </c>
       <c r="I294" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J294" s="2">
         <v>1</v>
@@ -12923,7 +12927,7 @@
         <v>70.06</v>
       </c>
       <c r="I295" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J295" s="2">
         <v>2</v>
@@ -12965,7 +12969,7 @@
         <v>70.06</v>
       </c>
       <c r="I296" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J296" s="2">
         <v>3</v>
@@ -13007,7 +13011,7 @@
         <v>70.06</v>
       </c>
       <c r="I297" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J297" s="2">
         <v>4</v>
@@ -13049,7 +13053,7 @@
         <v>140.12</v>
       </c>
       <c r="I298" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J298" s="2">
         <v>1</v>
@@ -13091,7 +13095,7 @@
         <v>140.12</v>
       </c>
       <c r="I299" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J299" s="2">
         <v>2</v>
@@ -13133,7 +13137,7 @@
         <v>140.12</v>
       </c>
       <c r="I300" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J300" s="2">
         <v>3</v>
@@ -13175,7 +13179,7 @@
         <v>140.12</v>
       </c>
       <c r="I301" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J301" s="2">
         <v>4</v>
@@ -13217,7 +13221,7 @@
         <v>280.25</v>
       </c>
       <c r="I302" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J302" s="2">
         <v>1</v>
@@ -13259,7 +13263,7 @@
         <v>280.25</v>
       </c>
       <c r="I303" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J303" s="2">
         <v>2</v>
@@ -13301,7 +13305,7 @@
         <v>280.25</v>
       </c>
       <c r="I304" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J304" s="2">
         <v>3</v>
@@ -13343,7 +13347,7 @@
         <v>280.25</v>
       </c>
       <c r="I305" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J305" s="2">
         <v>4</v>
@@ -13385,7 +13389,7 @@
         <v>560.49</v>
       </c>
       <c r="I306" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J306" s="2">
         <v>1</v>
@@ -13427,7 +13431,7 @@
         <v>560.49</v>
       </c>
       <c r="I307" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J307" s="2">
         <v>2</v>
@@ -13469,7 +13473,7 @@
         <v>560.49</v>
       </c>
       <c r="I308" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J308" s="2">
         <v>3</v>
@@ -13511,7 +13515,7 @@
         <v>560.49</v>
       </c>
       <c r="I309" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J309" s="2">
         <v>4</v>
@@ -13553,7 +13557,7 @@
         <v>1120.99</v>
       </c>
       <c r="I310" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J310" s="2">
         <v>1</v>
@@ -13595,7 +13599,7 @@
         <v>1120.99</v>
       </c>
       <c r="I311" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J311" s="2">
         <v>2</v>
@@ -13637,7 +13641,7 @@
         <v>1120.99</v>
       </c>
       <c r="I312" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J312" s="2">
         <v>3</v>
@@ -13679,7 +13683,7 @@
         <v>1120.99</v>
       </c>
       <c r="I313" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J313" s="2">
         <v>4</v>
@@ -13721,7 +13725,7 @@
         <v>2241.98</v>
       </c>
       <c r="I314" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J314" s="2">
         <v>1</v>
@@ -13763,7 +13767,7 @@
         <v>2241.98</v>
       </c>
       <c r="I315" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J315" s="2">
         <v>2</v>
@@ -13805,7 +13809,7 @@
         <v>2241.98</v>
       </c>
       <c r="I316" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J316" s="2">
         <v>3</v>
@@ -13847,7 +13851,7 @@
         <v>2241.98</v>
       </c>
       <c r="I317" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J317" s="2">
         <v>4</v>
@@ -13889,7 +13893,7 @@
         <v>4483.95</v>
       </c>
       <c r="I318" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J318" s="2">
         <v>1</v>
@@ -13931,7 +13935,7 @@
         <v>4483.95</v>
       </c>
       <c r="I319" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J319" s="2">
         <v>2</v>
@@ -13973,7 +13977,7 @@
         <v>4483.95</v>
       </c>
       <c r="I320" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J320" s="2">
         <v>3</v>
@@ -14015,7 +14019,7 @@
         <v>4483.95</v>
       </c>
       <c r="I321" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J321" s="2">
         <v>4</v>
@@ -14048,7 +14052,7 @@
       </c>
       <c r="F322" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G322" s="2" t="s">
         <v>9</v>
@@ -14057,7 +14061,7 @@
         <v>0</v>
       </c>
       <c r="I322" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J322" s="2">
         <v>1</v>
@@ -14090,7 +14094,7 @@
       </c>
       <c r="F323" s="2" t="str">
         <f t="shared" ref="F323:F386" si="5">_xlfn.CONCAT(D323, "+", E323, "+", I323)</f>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G323" s="2" t="s">
         <v>9</v>
@@ -14099,7 +14103,7 @@
         <v>0</v>
       </c>
       <c r="I323" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J323" s="2">
         <v>2</v>
@@ -14132,7 +14136,7 @@
       </c>
       <c r="F324" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G324" s="2" t="s">
         <v>9</v>
@@ -14141,7 +14145,7 @@
         <v>0</v>
       </c>
       <c r="I324" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J324" s="2">
         <v>3</v>
@@ -14174,7 +14178,7 @@
       </c>
       <c r="F325" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G325" s="2" t="s">
         <v>9</v>
@@ -14183,7 +14187,7 @@
         <v>0</v>
       </c>
       <c r="I325" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J325" s="2">
         <v>4</v>
@@ -14216,7 +14220,7 @@
       </c>
       <c r="F326" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G326" s="2" t="s">
         <v>19</v>
@@ -14225,7 +14229,7 @@
         <v>17.52</v>
       </c>
       <c r="I326" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J326" s="2">
         <v>1</v>
@@ -14258,7 +14262,7 @@
       </c>
       <c r="F327" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G327" s="2" t="s">
         <v>19</v>
@@ -14267,7 +14271,7 @@
         <v>17.52</v>
       </c>
       <c r="I327" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J327" s="2">
         <v>2</v>
@@ -14300,7 +14304,7 @@
       </c>
       <c r="F328" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G328" s="2" t="s">
         <v>19</v>
@@ -14309,7 +14313,7 @@
         <v>17.52</v>
       </c>
       <c r="I328" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J328" s="2">
         <v>3</v>
@@ -14342,7 +14346,7 @@
       </c>
       <c r="F329" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G329" s="2" t="s">
         <v>19</v>
@@ -14351,7 +14355,7 @@
         <v>17.52</v>
       </c>
       <c r="I329" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J329" s="2">
         <v>4</v>
@@ -14384,7 +14388,7 @@
       </c>
       <c r="F330" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G330" s="2" t="s">
         <v>20</v>
@@ -14393,7 +14397,7 @@
         <v>35.03</v>
       </c>
       <c r="I330" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J330" s="2">
         <v>1</v>
@@ -14426,7 +14430,7 @@
       </c>
       <c r="F331" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G331" s="2" t="s">
         <v>20</v>
@@ -14435,7 +14439,7 @@
         <v>35.03</v>
       </c>
       <c r="I331" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J331" s="2">
         <v>2</v>
@@ -14468,7 +14472,7 @@
       </c>
       <c r="F332" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G332" s="2" t="s">
         <v>20</v>
@@ -14477,7 +14481,7 @@
         <v>35.03</v>
       </c>
       <c r="I332" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J332" s="2">
         <v>3</v>
@@ -14510,7 +14514,7 @@
       </c>
       <c r="F333" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G333" s="2" t="s">
         <v>20</v>
@@ -14519,7 +14523,7 @@
         <v>35.03</v>
       </c>
       <c r="I333" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J333" s="2">
         <v>4</v>
@@ -14552,7 +14556,7 @@
       </c>
       <c r="F334" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G334" s="2" t="s">
         <v>21</v>
@@ -14561,7 +14565,7 @@
         <v>70.06</v>
       </c>
       <c r="I334" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J334" s="2">
         <v>1</v>
@@ -14594,7 +14598,7 @@
       </c>
       <c r="F335" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G335" s="2" t="s">
         <v>21</v>
@@ -14603,7 +14607,7 @@
         <v>70.06</v>
       </c>
       <c r="I335" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J335" s="2">
         <v>2</v>
@@ -14636,7 +14640,7 @@
       </c>
       <c r="F336" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G336" s="2" t="s">
         <v>21</v>
@@ -14645,7 +14649,7 @@
         <v>70.06</v>
       </c>
       <c r="I336" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J336" s="2">
         <v>3</v>
@@ -14678,7 +14682,7 @@
       </c>
       <c r="F337" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G337" s="2" t="s">
         <v>21</v>
@@ -14687,7 +14691,7 @@
         <v>70.06</v>
       </c>
       <c r="I337" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J337" s="2">
         <v>4</v>
@@ -14720,7 +14724,7 @@
       </c>
       <c r="F338" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G338" s="2" t="s">
         <v>10</v>
@@ -14729,7 +14733,7 @@
         <v>140.12</v>
       </c>
       <c r="I338" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J338" s="2">
         <v>1</v>
@@ -14762,7 +14766,7 @@
       </c>
       <c r="F339" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G339" s="2" t="s">
         <v>10</v>
@@ -14771,7 +14775,7 @@
         <v>140.12</v>
       </c>
       <c r="I339" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J339" s="2">
         <v>2</v>
@@ -14804,7 +14808,7 @@
       </c>
       <c r="F340" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G340" s="2" t="s">
         <v>10</v>
@@ -14813,7 +14817,7 @@
         <v>140.12</v>
       </c>
       <c r="I340" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J340" s="2">
         <v>3</v>
@@ -14846,7 +14850,7 @@
       </c>
       <c r="F341" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G341" s="2" t="s">
         <v>10</v>
@@ -14855,7 +14859,7 @@
         <v>140.12</v>
       </c>
       <c r="I341" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J341" s="2">
         <v>4</v>
@@ -14888,7 +14892,7 @@
       </c>
       <c r="F342" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G342" s="2" t="s">
         <v>11</v>
@@ -14897,7 +14901,7 @@
         <v>280.25</v>
       </c>
       <c r="I342" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J342" s="2">
         <v>1</v>
@@ -14930,7 +14934,7 @@
       </c>
       <c r="F343" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G343" s="2" t="s">
         <v>11</v>
@@ -14939,7 +14943,7 @@
         <v>280.25</v>
       </c>
       <c r="I343" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J343" s="2">
         <v>2</v>
@@ -14972,7 +14976,7 @@
       </c>
       <c r="F344" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G344" s="2" t="s">
         <v>11</v>
@@ -14981,7 +14985,7 @@
         <v>280.25</v>
       </c>
       <c r="I344" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J344" s="2">
         <v>3</v>
@@ -15014,7 +15018,7 @@
       </c>
       <c r="F345" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G345" s="2" t="s">
         <v>11</v>
@@ -15023,7 +15027,7 @@
         <v>280.25</v>
       </c>
       <c r="I345" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J345" s="2">
         <v>4</v>
@@ -15056,7 +15060,7 @@
       </c>
       <c r="F346" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G346" s="2" t="s">
         <v>12</v>
@@ -15065,7 +15069,7 @@
         <v>560.49</v>
       </c>
       <c r="I346" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J346" s="2">
         <v>1</v>
@@ -15098,7 +15102,7 @@
       </c>
       <c r="F347" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G347" s="2" t="s">
         <v>12</v>
@@ -15107,7 +15111,7 @@
         <v>560.49</v>
       </c>
       <c r="I347" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J347" s="2">
         <v>2</v>
@@ -15140,7 +15144,7 @@
       </c>
       <c r="F348" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G348" s="2" t="s">
         <v>12</v>
@@ -15149,7 +15153,7 @@
         <v>560.49</v>
       </c>
       <c r="I348" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J348" s="2">
         <v>3</v>
@@ -15182,7 +15186,7 @@
       </c>
       <c r="F349" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G349" s="2" t="s">
         <v>12</v>
@@ -15191,7 +15195,7 @@
         <v>560.49</v>
       </c>
       <c r="I349" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J349" s="2">
         <v>4</v>
@@ -15224,7 +15228,7 @@
       </c>
       <c r="F350" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G350" s="2" t="s">
         <v>13</v>
@@ -15233,7 +15237,7 @@
         <v>1120.99</v>
       </c>
       <c r="I350" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J350" s="2">
         <v>1</v>
@@ -15266,7 +15270,7 @@
       </c>
       <c r="F351" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G351" s="2" t="s">
         <v>13</v>
@@ -15275,7 +15279,7 @@
         <v>1120.99</v>
       </c>
       <c r="I351" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J351" s="2">
         <v>2</v>
@@ -15308,7 +15312,7 @@
       </c>
       <c r="F352" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G352" s="2" t="s">
         <v>13</v>
@@ -15317,7 +15321,7 @@
         <v>1120.99</v>
       </c>
       <c r="I352" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J352" s="2">
         <v>3</v>
@@ -15350,7 +15354,7 @@
       </c>
       <c r="F353" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G353" s="2" t="s">
         <v>13</v>
@@ -15359,7 +15363,7 @@
         <v>1120.99</v>
       </c>
       <c r="I353" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J353" s="2">
         <v>4</v>
@@ -15392,7 +15396,7 @@
       </c>
       <c r="F354" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G354" s="2" t="s">
         <v>14</v>
@@ -15401,7 +15405,7 @@
         <v>2241.98</v>
       </c>
       <c r="I354" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J354" s="2">
         <v>1</v>
@@ -15434,7 +15438,7 @@
       </c>
       <c r="F355" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G355" s="2" t="s">
         <v>14</v>
@@ -15443,7 +15447,7 @@
         <v>2241.98</v>
       </c>
       <c r="I355" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J355" s="2">
         <v>2</v>
@@ -15476,7 +15480,7 @@
       </c>
       <c r="F356" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G356" s="2" t="s">
         <v>14</v>
@@ -15485,7 +15489,7 @@
         <v>2241.98</v>
       </c>
       <c r="I356" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J356" s="2">
         <v>3</v>
@@ -15518,7 +15522,7 @@
       </c>
       <c r="F357" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G357" s="2" t="s">
         <v>14</v>
@@ -15527,7 +15531,7 @@
         <v>2241.98</v>
       </c>
       <c r="I357" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J357" s="2">
         <v>4</v>
@@ -15560,7 +15564,7 @@
       </c>
       <c r="F358" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G358" s="2" t="s">
         <v>15</v>
@@ -15569,7 +15573,7 @@
         <v>4483.95</v>
       </c>
       <c r="I358" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J358" s="2">
         <v>1</v>
@@ -15602,7 +15606,7 @@
       </c>
       <c r="F359" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G359" s="2" t="s">
         <v>15</v>
@@ -15611,7 +15615,7 @@
         <v>4483.95</v>
       </c>
       <c r="I359" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J359" s="2">
         <v>2</v>
@@ -15644,7 +15648,7 @@
       </c>
       <c r="F360" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G360" s="2" t="s">
         <v>15</v>
@@ -15653,7 +15657,7 @@
         <v>4483.95</v>
       </c>
       <c r="I360" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J360" s="2">
         <v>3</v>
@@ -15686,7 +15690,7 @@
       </c>
       <c r="F361" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>A82+atra+elevated</v>
+        <v>A82+atra+increased</v>
       </c>
       <c r="G361" s="2" t="s">
         <v>15</v>
@@ -15695,7 +15699,7 @@
         <v>4483.95</v>
       </c>
       <c r="I361" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J361" s="2">
         <v>4</v>
@@ -15737,7 +15741,7 @@
         <v>0</v>
       </c>
       <c r="I362" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J362" s="2">
         <v>1</v>
@@ -15779,7 +15783,7 @@
         <v>0</v>
       </c>
       <c r="I363" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J363" s="2">
         <v>2</v>
@@ -15821,7 +15825,7 @@
         <v>0</v>
       </c>
       <c r="I364" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J364" s="2">
         <v>3</v>
@@ -15863,7 +15867,7 @@
         <v>0</v>
       </c>
       <c r="I365" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J365" s="2">
         <v>4</v>
@@ -15905,7 +15909,7 @@
         <v>17.52</v>
       </c>
       <c r="I366" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J366" s="2">
         <v>1</v>
@@ -15947,7 +15951,7 @@
         <v>17.52</v>
       </c>
       <c r="I367" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J367" s="2">
         <v>2</v>
@@ -15989,7 +15993,7 @@
         <v>17.52</v>
       </c>
       <c r="I368" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J368" s="2">
         <v>3</v>
@@ -16031,7 +16035,7 @@
         <v>17.52</v>
       </c>
       <c r="I369" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J369" s="2">
         <v>4</v>
@@ -16073,7 +16077,7 @@
         <v>35.03</v>
       </c>
       <c r="I370" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J370" s="2">
         <v>1</v>
@@ -16115,7 +16119,7 @@
         <v>35.03</v>
       </c>
       <c r="I371" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J371" s="2">
         <v>2</v>
@@ -16157,7 +16161,7 @@
         <v>35.03</v>
       </c>
       <c r="I372" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J372" s="2">
         <v>3</v>
@@ -16199,7 +16203,7 @@
         <v>35.03</v>
       </c>
       <c r="I373" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J373" s="2">
         <v>4</v>
@@ -16241,7 +16245,7 @@
         <v>70.06</v>
       </c>
       <c r="I374" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J374" s="2">
         <v>1</v>
@@ -16283,7 +16287,7 @@
         <v>70.06</v>
       </c>
       <c r="I375" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J375" s="2">
         <v>2</v>
@@ -16325,7 +16329,7 @@
         <v>70.06</v>
       </c>
       <c r="I376" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J376" s="2">
         <v>3</v>
@@ -16367,7 +16371,7 @@
         <v>70.06</v>
       </c>
       <c r="I377" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J377" s="2">
         <v>4</v>
@@ -16409,7 +16413,7 @@
         <v>140.12</v>
       </c>
       <c r="I378" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J378" s="2">
         <v>1</v>
@@ -16451,7 +16455,7 @@
         <v>140.12</v>
       </c>
       <c r="I379" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J379" s="2">
         <v>2</v>
@@ -16493,7 +16497,7 @@
         <v>140.12</v>
       </c>
       <c r="I380" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J380" s="2">
         <v>3</v>
@@ -16535,7 +16539,7 @@
         <v>140.12</v>
       </c>
       <c r="I381" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J381" s="2">
         <v>4</v>
@@ -16577,7 +16581,7 @@
         <v>280.25</v>
       </c>
       <c r="I382" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J382" s="2">
         <v>1</v>
@@ -16619,7 +16623,7 @@
         <v>280.25</v>
       </c>
       <c r="I383" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J383" s="2">
         <v>2</v>
@@ -16661,7 +16665,7 @@
         <v>280.25</v>
       </c>
       <c r="I384" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J384" s="2">
         <v>3</v>
@@ -16703,7 +16707,7 @@
         <v>280.25</v>
       </c>
       <c r="I385" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J385" s="2">
         <v>4</v>
@@ -16745,7 +16749,7 @@
         <v>560.49</v>
       </c>
       <c r="I386" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J386" s="2">
         <v>1</v>
@@ -16787,7 +16791,7 @@
         <v>560.49</v>
       </c>
       <c r="I387" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J387" s="2">
         <v>2</v>
@@ -16829,7 +16833,7 @@
         <v>560.49</v>
       </c>
       <c r="I388" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J388" s="2">
         <v>3</v>
@@ -16871,7 +16875,7 @@
         <v>560.49</v>
       </c>
       <c r="I389" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J389" s="2">
         <v>4</v>
@@ -16913,7 +16917,7 @@
         <v>1120.99</v>
       </c>
       <c r="I390" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J390" s="2">
         <v>1</v>
@@ -16955,7 +16959,7 @@
         <v>1120.99</v>
       </c>
       <c r="I391" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J391" s="2">
         <v>2</v>
@@ -16997,7 +17001,7 @@
         <v>1120.99</v>
       </c>
       <c r="I392" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J392" s="2">
         <v>3</v>
@@ -17039,7 +17043,7 @@
         <v>1120.99</v>
       </c>
       <c r="I393" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J393" s="2">
         <v>4</v>
@@ -17081,7 +17085,7 @@
         <v>2241.98</v>
       </c>
       <c r="I394" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J394" s="2">
         <v>1</v>
@@ -17123,7 +17127,7 @@
         <v>2241.98</v>
       </c>
       <c r="I395" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J395" s="2">
         <v>2</v>
@@ -17165,7 +17169,7 @@
         <v>2241.98</v>
       </c>
       <c r="I396" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J396" s="2">
         <v>3</v>
@@ -17207,7 +17211,7 @@
         <v>2241.98</v>
       </c>
       <c r="I397" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J397" s="2">
         <v>4</v>
@@ -17249,7 +17253,7 @@
         <v>4483.95</v>
       </c>
       <c r="I398" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J398" s="2">
         <v>1</v>
@@ -17291,7 +17295,7 @@
         <v>4483.95</v>
       </c>
       <c r="I399" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J399" s="2">
         <v>2</v>
@@ -17333,7 +17337,7 @@
         <v>4483.95</v>
       </c>
       <c r="I400" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J400" s="2">
         <v>3</v>
@@ -17375,7 +17379,7 @@
         <v>4483.95</v>
       </c>
       <c r="I401" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J401" s="2">
         <v>4</v>
@@ -17408,7 +17412,7 @@
       </c>
       <c r="F402" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G402" s="2" t="s">
         <v>9</v>
@@ -17417,7 +17421,7 @@
         <v>0</v>
       </c>
       <c r="I402" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J402" s="2">
         <v>1</v>
@@ -17450,7 +17454,7 @@
       </c>
       <c r="F403" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G403" s="2" t="s">
         <v>9</v>
@@ -17459,7 +17463,7 @@
         <v>0</v>
       </c>
       <c r="I403" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J403" s="2">
         <v>2</v>
@@ -17492,7 +17496,7 @@
       </c>
       <c r="F404" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G404" s="2" t="s">
         <v>9</v>
@@ -17501,7 +17505,7 @@
         <v>0</v>
       </c>
       <c r="I404" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J404" s="2">
         <v>3</v>
@@ -17534,7 +17538,7 @@
       </c>
       <c r="F405" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G405" s="2" t="s">
         <v>9</v>
@@ -17543,7 +17547,7 @@
         <v>0</v>
       </c>
       <c r="I405" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J405" s="2">
         <v>4</v>
@@ -17576,7 +17580,7 @@
       </c>
       <c r="F406" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G406" s="2" t="s">
         <v>19</v>
@@ -17585,7 +17589,7 @@
         <v>17.52</v>
       </c>
       <c r="I406" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J406" s="2">
         <v>1</v>
@@ -17618,7 +17622,7 @@
       </c>
       <c r="F407" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G407" s="2" t="s">
         <v>19</v>
@@ -17627,7 +17631,7 @@
         <v>17.52</v>
       </c>
       <c r="I407" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J407" s="2">
         <v>2</v>
@@ -17660,7 +17664,7 @@
       </c>
       <c r="F408" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G408" s="2" t="s">
         <v>19</v>
@@ -17669,7 +17673,7 @@
         <v>17.52</v>
       </c>
       <c r="I408" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J408" s="2">
         <v>3</v>
@@ -17702,7 +17706,7 @@
       </c>
       <c r="F409" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G409" s="2" t="s">
         <v>19</v>
@@ -17711,7 +17715,7 @@
         <v>17.52</v>
       </c>
       <c r="I409" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J409" s="2">
         <v>4</v>
@@ -17744,7 +17748,7 @@
       </c>
       <c r="F410" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G410" s="2" t="s">
         <v>20</v>
@@ -17753,7 +17757,7 @@
         <v>35.03</v>
       </c>
       <c r="I410" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J410" s="2">
         <v>1</v>
@@ -17786,7 +17790,7 @@
       </c>
       <c r="F411" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G411" s="2" t="s">
         <v>20</v>
@@ -17795,7 +17799,7 @@
         <v>35.03</v>
       </c>
       <c r="I411" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J411" s="2">
         <v>2</v>
@@ -17828,7 +17832,7 @@
       </c>
       <c r="F412" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G412" s="2" t="s">
         <v>20</v>
@@ -17837,7 +17841,7 @@
         <v>35.03</v>
       </c>
       <c r="I412" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J412" s="2">
         <v>3</v>
@@ -17870,7 +17874,7 @@
       </c>
       <c r="F413" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G413" s="2" t="s">
         <v>20</v>
@@ -17879,7 +17883,7 @@
         <v>35.03</v>
       </c>
       <c r="I413" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J413" s="2">
         <v>4</v>
@@ -17912,7 +17916,7 @@
       </c>
       <c r="F414" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G414" s="2" t="s">
         <v>21</v>
@@ -17921,7 +17925,7 @@
         <v>70.06</v>
       </c>
       <c r="I414" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J414" s="2">
         <v>1</v>
@@ -17954,7 +17958,7 @@
       </c>
       <c r="F415" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G415" s="2" t="s">
         <v>21</v>
@@ -17963,7 +17967,7 @@
         <v>70.06</v>
       </c>
       <c r="I415" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J415" s="2">
         <v>2</v>
@@ -17996,7 +18000,7 @@
       </c>
       <c r="F416" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G416" s="2" t="s">
         <v>21</v>
@@ -18005,7 +18009,7 @@
         <v>70.06</v>
       </c>
       <c r="I416" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J416" s="2">
         <v>3</v>
@@ -18038,7 +18042,7 @@
       </c>
       <c r="F417" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G417" s="2" t="s">
         <v>21</v>
@@ -18047,7 +18051,7 @@
         <v>70.06</v>
       </c>
       <c r="I417" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J417" s="2">
         <v>4</v>
@@ -18080,7 +18084,7 @@
       </c>
       <c r="F418" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G418" s="2" t="s">
         <v>10</v>
@@ -18089,7 +18093,7 @@
         <v>140.12</v>
       </c>
       <c r="I418" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J418" s="2">
         <v>1</v>
@@ -18122,7 +18126,7 @@
       </c>
       <c r="F419" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G419" s="2" t="s">
         <v>10</v>
@@ -18131,7 +18135,7 @@
         <v>140.12</v>
       </c>
       <c r="I419" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J419" s="2">
         <v>2</v>
@@ -18164,7 +18168,7 @@
       </c>
       <c r="F420" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G420" s="2" t="s">
         <v>10</v>
@@ -18173,7 +18177,7 @@
         <v>140.12</v>
       </c>
       <c r="I420" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J420" s="2">
         <v>3</v>
@@ -18206,7 +18210,7 @@
       </c>
       <c r="F421" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G421" s="2" t="s">
         <v>10</v>
@@ -18215,7 +18219,7 @@
         <v>140.12</v>
       </c>
       <c r="I421" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J421" s="2">
         <v>4</v>
@@ -18248,7 +18252,7 @@
       </c>
       <c r="F422" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G422" s="2" t="s">
         <v>11</v>
@@ -18257,7 +18261,7 @@
         <v>280.25</v>
       </c>
       <c r="I422" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J422" s="2">
         <v>1</v>
@@ -18290,7 +18294,7 @@
       </c>
       <c r="F423" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G423" s="2" t="s">
         <v>11</v>
@@ -18299,7 +18303,7 @@
         <v>280.25</v>
       </c>
       <c r="I423" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J423" s="2">
         <v>2</v>
@@ -18332,7 +18336,7 @@
       </c>
       <c r="F424" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G424" s="2" t="s">
         <v>11</v>
@@ -18341,7 +18345,7 @@
         <v>280.25</v>
       </c>
       <c r="I424" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J424" s="2">
         <v>3</v>
@@ -18374,7 +18378,7 @@
       </c>
       <c r="F425" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G425" s="2" t="s">
         <v>11</v>
@@ -18383,7 +18387,7 @@
         <v>280.25</v>
       </c>
       <c r="I425" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J425" s="2">
         <v>4</v>
@@ -18416,7 +18420,7 @@
       </c>
       <c r="F426" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G426" s="2" t="s">
         <v>12</v>
@@ -18425,7 +18429,7 @@
         <v>560.49</v>
       </c>
       <c r="I426" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J426" s="2">
         <v>1</v>
@@ -18458,7 +18462,7 @@
       </c>
       <c r="F427" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G427" s="2" t="s">
         <v>12</v>
@@ -18467,7 +18471,7 @@
         <v>560.49</v>
       </c>
       <c r="I427" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J427" s="2">
         <v>2</v>
@@ -18500,7 +18504,7 @@
       </c>
       <c r="F428" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G428" s="2" t="s">
         <v>12</v>
@@ -18509,7 +18513,7 @@
         <v>560.49</v>
       </c>
       <c r="I428" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J428" s="2">
         <v>3</v>
@@ -18542,7 +18546,7 @@
       </c>
       <c r="F429" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G429" s="2" t="s">
         <v>12</v>
@@ -18551,7 +18555,7 @@
         <v>560.49</v>
       </c>
       <c r="I429" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J429" s="2">
         <v>4</v>
@@ -18584,7 +18588,7 @@
       </c>
       <c r="F430" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G430" s="2" t="s">
         <v>13</v>
@@ -18593,7 +18597,7 @@
         <v>1120.99</v>
       </c>
       <c r="I430" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J430" s="2">
         <v>1</v>
@@ -18626,7 +18630,7 @@
       </c>
       <c r="F431" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G431" s="2" t="s">
         <v>13</v>
@@ -18635,7 +18639,7 @@
         <v>1120.99</v>
       </c>
       <c r="I431" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J431" s="2">
         <v>2</v>
@@ -18668,7 +18672,7 @@
       </c>
       <c r="F432" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G432" s="2" t="s">
         <v>13</v>
@@ -18677,7 +18681,7 @@
         <v>1120.99</v>
       </c>
       <c r="I432" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J432" s="2">
         <v>3</v>
@@ -18710,7 +18714,7 @@
       </c>
       <c r="F433" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G433" s="2" t="s">
         <v>13</v>
@@ -18719,7 +18723,7 @@
         <v>1120.99</v>
       </c>
       <c r="I433" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J433" s="2">
         <v>4</v>
@@ -18752,7 +18756,7 @@
       </c>
       <c r="F434" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G434" s="2" t="s">
         <v>14</v>
@@ -18761,7 +18765,7 @@
         <v>2241.98</v>
       </c>
       <c r="I434" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J434" s="2">
         <v>1</v>
@@ -18794,7 +18798,7 @@
       </c>
       <c r="F435" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G435" s="2" t="s">
         <v>14</v>
@@ -18803,7 +18807,7 @@
         <v>2241.98</v>
       </c>
       <c r="I435" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J435" s="2">
         <v>2</v>
@@ -18836,7 +18840,7 @@
       </c>
       <c r="F436" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G436" s="2" t="s">
         <v>14</v>
@@ -18845,7 +18849,7 @@
         <v>2241.98</v>
       </c>
       <c r="I436" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J436" s="2">
         <v>3</v>
@@ -18878,7 +18882,7 @@
       </c>
       <c r="F437" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G437" s="2" t="s">
         <v>14</v>
@@ -18887,7 +18891,7 @@
         <v>2241.98</v>
       </c>
       <c r="I437" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J437" s="2">
         <v>4</v>
@@ -18920,7 +18924,7 @@
       </c>
       <c r="F438" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G438" s="2" t="s">
         <v>15</v>
@@ -18929,7 +18933,7 @@
         <v>4483.95</v>
       </c>
       <c r="I438" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J438" s="2">
         <v>1</v>
@@ -18962,7 +18966,7 @@
       </c>
       <c r="F439" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G439" s="2" t="s">
         <v>15</v>
@@ -18971,7 +18975,7 @@
         <v>4483.95</v>
       </c>
       <c r="I439" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J439" s="2">
         <v>2</v>
@@ -19004,7 +19008,7 @@
       </c>
       <c r="F440" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G440" s="2" t="s">
         <v>15</v>
@@ -19013,7 +19017,7 @@
         <v>4483.95</v>
       </c>
       <c r="I440" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J440" s="2">
         <v>3</v>
@@ -19046,7 +19050,7 @@
       </c>
       <c r="F441" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+elevated</v>
+        <v>A101+atra+increased</v>
       </c>
       <c r="G441" s="2" t="s">
         <v>15</v>
@@ -19055,7 +19059,7 @@
         <v>4483.95</v>
       </c>
       <c r="I441" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J441" s="2">
         <v>4</v>
@@ -19088,7 +19092,7 @@
       </c>
       <c r="F442" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G442" s="2" t="s">
         <v>9</v>
@@ -19097,7 +19101,7 @@
         <v>0</v>
       </c>
       <c r="I442" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J442" s="2">
         <v>1</v>
@@ -19130,7 +19134,7 @@
       </c>
       <c r="F443" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G443" s="2" t="s">
         <v>9</v>
@@ -19139,7 +19143,7 @@
         <v>0</v>
       </c>
       <c r="I443" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J443" s="2">
         <v>2</v>
@@ -19172,7 +19176,7 @@
       </c>
       <c r="F444" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G444" s="2" t="s">
         <v>9</v>
@@ -19181,7 +19185,7 @@
         <v>0</v>
       </c>
       <c r="I444" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J444" s="2">
         <v>3</v>
@@ -19214,7 +19218,7 @@
       </c>
       <c r="F445" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G445" s="2" t="s">
         <v>9</v>
@@ -19223,7 +19227,7 @@
         <v>0</v>
       </c>
       <c r="I445" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J445" s="2">
         <v>4</v>
@@ -19256,7 +19260,7 @@
       </c>
       <c r="F446" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G446" s="2" t="s">
         <v>19</v>
@@ -19265,7 +19269,7 @@
         <v>17.52</v>
       </c>
       <c r="I446" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J446" s="2">
         <v>1</v>
@@ -19298,7 +19302,7 @@
       </c>
       <c r="F447" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G447" s="2" t="s">
         <v>19</v>
@@ -19307,7 +19311,7 @@
         <v>17.52</v>
       </c>
       <c r="I447" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J447" s="2">
         <v>2</v>
@@ -19340,7 +19344,7 @@
       </c>
       <c r="F448" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G448" s="2" t="s">
         <v>19</v>
@@ -19349,7 +19353,7 @@
         <v>17.52</v>
       </c>
       <c r="I448" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J448" s="2">
         <v>3</v>
@@ -19382,7 +19386,7 @@
       </c>
       <c r="F449" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G449" s="2" t="s">
         <v>19</v>
@@ -19391,7 +19395,7 @@
         <v>17.52</v>
       </c>
       <c r="I449" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J449" s="2">
         <v>4</v>
@@ -19424,7 +19428,7 @@
       </c>
       <c r="F450" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G450" s="2" t="s">
         <v>20</v>
@@ -19433,7 +19437,7 @@
         <v>35.03</v>
       </c>
       <c r="I450" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J450" s="2">
         <v>1</v>
@@ -19466,7 +19470,7 @@
       </c>
       <c r="F451" s="2" t="str">
         <f t="shared" ref="F451:F514" si="7">_xlfn.CONCAT(D451, "+", E451, "+", I451)</f>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G451" s="2" t="s">
         <v>20</v>
@@ -19475,7 +19479,7 @@
         <v>35.03</v>
       </c>
       <c r="I451" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J451" s="2">
         <v>2</v>
@@ -19508,7 +19512,7 @@
       </c>
       <c r="F452" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G452" s="2" t="s">
         <v>20</v>
@@ -19517,7 +19521,7 @@
         <v>35.03</v>
       </c>
       <c r="I452" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J452" s="2">
         <v>3</v>
@@ -19550,7 +19554,7 @@
       </c>
       <c r="F453" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G453" s="2" t="s">
         <v>20</v>
@@ -19559,7 +19563,7 @@
         <v>35.03</v>
       </c>
       <c r="I453" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J453" s="2">
         <v>4</v>
@@ -19592,7 +19596,7 @@
       </c>
       <c r="F454" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G454" s="2" t="s">
         <v>21</v>
@@ -19601,7 +19605,7 @@
         <v>70.06</v>
       </c>
       <c r="I454" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J454" s="2">
         <v>1</v>
@@ -19634,7 +19638,7 @@
       </c>
       <c r="F455" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G455" s="2" t="s">
         <v>21</v>
@@ -19643,7 +19647,7 @@
         <v>70.06</v>
       </c>
       <c r="I455" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J455" s="2">
         <v>2</v>
@@ -19676,7 +19680,7 @@
       </c>
       <c r="F456" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G456" s="2" t="s">
         <v>21</v>
@@ -19685,7 +19689,7 @@
         <v>70.06</v>
       </c>
       <c r="I456" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J456" s="2">
         <v>3</v>
@@ -19718,7 +19722,7 @@
       </c>
       <c r="F457" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G457" s="2" t="s">
         <v>21</v>
@@ -19727,7 +19731,7 @@
         <v>70.06</v>
       </c>
       <c r="I457" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J457" s="2">
         <v>4</v>
@@ -19760,7 +19764,7 @@
       </c>
       <c r="F458" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G458" s="2" t="s">
         <v>10</v>
@@ -19769,7 +19773,7 @@
         <v>140.12</v>
       </c>
       <c r="I458" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J458" s="2">
         <v>1</v>
@@ -19802,7 +19806,7 @@
       </c>
       <c r="F459" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G459" s="2" t="s">
         <v>10</v>
@@ -19811,7 +19815,7 @@
         <v>140.12</v>
       </c>
       <c r="I459" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J459" s="2">
         <v>2</v>
@@ -19844,7 +19848,7 @@
       </c>
       <c r="F460" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G460" s="2" t="s">
         <v>10</v>
@@ -19853,7 +19857,7 @@
         <v>140.12</v>
       </c>
       <c r="I460" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J460" s="2">
         <v>3</v>
@@ -19886,7 +19890,7 @@
       </c>
       <c r="F461" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G461" s="2" t="s">
         <v>10</v>
@@ -19895,7 +19899,7 @@
         <v>140.12</v>
       </c>
       <c r="I461" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J461" s="2">
         <v>4</v>
@@ -19928,7 +19932,7 @@
       </c>
       <c r="F462" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G462" s="2" t="s">
         <v>11</v>
@@ -19937,7 +19941,7 @@
         <v>280.25</v>
       </c>
       <c r="I462" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J462" s="2">
         <v>1</v>
@@ -19970,7 +19974,7 @@
       </c>
       <c r="F463" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G463" s="2" t="s">
         <v>11</v>
@@ -19979,7 +19983,7 @@
         <v>280.25</v>
       </c>
       <c r="I463" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J463" s="2">
         <v>2</v>
@@ -20012,7 +20016,7 @@
       </c>
       <c r="F464" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G464" s="2" t="s">
         <v>11</v>
@@ -20021,7 +20025,7 @@
         <v>280.25</v>
       </c>
       <c r="I464" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J464" s="2">
         <v>3</v>
@@ -20054,7 +20058,7 @@
       </c>
       <c r="F465" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G465" s="2" t="s">
         <v>11</v>
@@ -20063,7 +20067,7 @@
         <v>280.25</v>
       </c>
       <c r="I465" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J465" s="2">
         <v>4</v>
@@ -20096,7 +20100,7 @@
       </c>
       <c r="F466" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G466" s="2" t="s">
         <v>12</v>
@@ -20105,7 +20109,7 @@
         <v>560.49</v>
       </c>
       <c r="I466" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J466" s="2">
         <v>1</v>
@@ -20138,7 +20142,7 @@
       </c>
       <c r="F467" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G467" s="2" t="s">
         <v>12</v>
@@ -20147,7 +20151,7 @@
         <v>560.49</v>
       </c>
       <c r="I467" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J467" s="2">
         <v>2</v>
@@ -20180,7 +20184,7 @@
       </c>
       <c r="F468" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G468" s="2" t="s">
         <v>12</v>
@@ -20189,7 +20193,7 @@
         <v>560.49</v>
       </c>
       <c r="I468" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J468" s="2">
         <v>3</v>
@@ -20222,7 +20226,7 @@
       </c>
       <c r="F469" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G469" s="2" t="s">
         <v>12</v>
@@ -20231,7 +20235,7 @@
         <v>560.49</v>
       </c>
       <c r="I469" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J469" s="2">
         <v>4</v>
@@ -20264,7 +20268,7 @@
       </c>
       <c r="F470" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G470" s="2" t="s">
         <v>13</v>
@@ -20273,7 +20277,7 @@
         <v>1120.99</v>
       </c>
       <c r="I470" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J470" s="2">
         <v>1</v>
@@ -20306,7 +20310,7 @@
       </c>
       <c r="F471" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G471" s="2" t="s">
         <v>13</v>
@@ -20315,7 +20319,7 @@
         <v>1120.99</v>
       </c>
       <c r="I471" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J471" s="2">
         <v>2</v>
@@ -20348,7 +20352,7 @@
       </c>
       <c r="F472" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G472" s="2" t="s">
         <v>13</v>
@@ -20357,7 +20361,7 @@
         <v>1120.99</v>
       </c>
       <c r="I472" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J472" s="2">
         <v>3</v>
@@ -20390,7 +20394,7 @@
       </c>
       <c r="F473" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G473" s="2" t="s">
         <v>13</v>
@@ -20399,7 +20403,7 @@
         <v>1120.99</v>
       </c>
       <c r="I473" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J473" s="2">
         <v>4</v>
@@ -20432,7 +20436,7 @@
       </c>
       <c r="F474" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G474" s="2" t="s">
         <v>14</v>
@@ -20441,7 +20445,7 @@
         <v>2241.98</v>
       </c>
       <c r="I474" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J474" s="2">
         <v>1</v>
@@ -20474,7 +20478,7 @@
       </c>
       <c r="F475" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G475" s="2" t="s">
         <v>14</v>
@@ -20483,7 +20487,7 @@
         <v>2241.98</v>
       </c>
       <c r="I475" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J475" s="2">
         <v>2</v>
@@ -20516,7 +20520,7 @@
       </c>
       <c r="F476" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G476" s="2" t="s">
         <v>14</v>
@@ -20525,7 +20529,7 @@
         <v>2241.98</v>
       </c>
       <c r="I476" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J476" s="2">
         <v>3</v>
@@ -20558,7 +20562,7 @@
       </c>
       <c r="F477" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G477" s="2" t="s">
         <v>14</v>
@@ -20567,7 +20571,7 @@
         <v>2241.98</v>
       </c>
       <c r="I477" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J477" s="2">
         <v>4</v>
@@ -20600,7 +20604,7 @@
       </c>
       <c r="F478" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G478" s="2" t="s">
         <v>15</v>
@@ -20609,7 +20613,7 @@
         <v>4483.95</v>
       </c>
       <c r="I478" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J478" s="2">
         <v>1</v>
@@ -20642,7 +20646,7 @@
       </c>
       <c r="F479" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G479" s="2" t="s">
         <v>15</v>
@@ -20651,7 +20655,7 @@
         <v>4483.95</v>
       </c>
       <c r="I479" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J479" s="2">
         <v>2</v>
@@ -20684,7 +20688,7 @@
       </c>
       <c r="F480" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G480" s="2" t="s">
         <v>15</v>
@@ -20693,7 +20697,7 @@
         <v>4483.95</v>
       </c>
       <c r="I480" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J480" s="2">
         <v>3</v>
@@ -20726,7 +20730,7 @@
       </c>
       <c r="F481" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+P450+elevated</v>
+        <v>A101+atra+P450+increased</v>
       </c>
       <c r="G481" s="2" t="s">
         <v>15</v>
@@ -20735,7 +20739,7 @@
         <v>4483.95</v>
       </c>
       <c r="I481" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J481" s="2">
         <v>4</v>
@@ -20768,7 +20772,7 @@
       </c>
       <c r="F482" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G482" s="2" t="s">
         <v>9</v>
@@ -20777,7 +20781,7 @@
         <v>0</v>
       </c>
       <c r="I482" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J482" s="2">
         <v>1</v>
@@ -20810,7 +20814,7 @@
       </c>
       <c r="F483" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G483" s="2" t="s">
         <v>9</v>
@@ -20819,7 +20823,7 @@
         <v>0</v>
       </c>
       <c r="I483" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J483" s="2">
         <v>2</v>
@@ -20852,7 +20856,7 @@
       </c>
       <c r="F484" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G484" s="2" t="s">
         <v>9</v>
@@ -20861,7 +20865,7 @@
         <v>0</v>
       </c>
       <c r="I484" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J484" s="2">
         <v>3</v>
@@ -20894,7 +20898,7 @@
       </c>
       <c r="F485" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G485" s="2" t="s">
         <v>9</v>
@@ -20903,7 +20907,7 @@
         <v>0</v>
       </c>
       <c r="I485" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J485" s="2">
         <v>4</v>
@@ -20936,7 +20940,7 @@
       </c>
       <c r="F486" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G486" s="2" t="s">
         <v>19</v>
@@ -20945,7 +20949,7 @@
         <v>17.52</v>
       </c>
       <c r="I486" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J486" s="2">
         <v>1</v>
@@ -20978,7 +20982,7 @@
       </c>
       <c r="F487" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G487" s="2" t="s">
         <v>19</v>
@@ -20987,7 +20991,7 @@
         <v>17.52</v>
       </c>
       <c r="I487" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J487" s="2">
         <v>2</v>
@@ -21020,7 +21024,7 @@
       </c>
       <c r="F488" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G488" s="2" t="s">
         <v>19</v>
@@ -21029,7 +21033,7 @@
         <v>17.52</v>
       </c>
       <c r="I488" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J488" s="2">
         <v>3</v>
@@ -21062,7 +21066,7 @@
       </c>
       <c r="F489" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G489" s="2" t="s">
         <v>19</v>
@@ -21071,7 +21075,7 @@
         <v>17.52</v>
       </c>
       <c r="I489" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J489" s="2">
         <v>4</v>
@@ -21104,7 +21108,7 @@
       </c>
       <c r="F490" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G490" s="2" t="s">
         <v>20</v>
@@ -21113,7 +21117,7 @@
         <v>35.03</v>
       </c>
       <c r="I490" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J490" s="2">
         <v>1</v>
@@ -21146,7 +21150,7 @@
       </c>
       <c r="F491" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G491" s="2" t="s">
         <v>20</v>
@@ -21155,7 +21159,7 @@
         <v>35.03</v>
       </c>
       <c r="I491" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J491" s="2">
         <v>2</v>
@@ -21188,7 +21192,7 @@
       </c>
       <c r="F492" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G492" s="2" t="s">
         <v>20</v>
@@ -21197,7 +21201,7 @@
         <v>35.03</v>
       </c>
       <c r="I492" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J492" s="2">
         <v>3</v>
@@ -21230,7 +21234,7 @@
       </c>
       <c r="F493" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G493" s="2" t="s">
         <v>20</v>
@@ -21239,7 +21243,7 @@
         <v>35.03</v>
       </c>
       <c r="I493" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J493" s="2">
         <v>4</v>
@@ -21272,7 +21276,7 @@
       </c>
       <c r="F494" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G494" s="2" t="s">
         <v>21</v>
@@ -21281,7 +21285,7 @@
         <v>70.06</v>
       </c>
       <c r="I494" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J494" s="2">
         <v>1</v>
@@ -21314,7 +21318,7 @@
       </c>
       <c r="F495" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G495" s="2" t="s">
         <v>21</v>
@@ -21323,7 +21327,7 @@
         <v>70.06</v>
       </c>
       <c r="I495" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J495" s="2">
         <v>2</v>
@@ -21356,7 +21360,7 @@
       </c>
       <c r="F496" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G496" s="2" t="s">
         <v>21</v>
@@ -21365,7 +21369,7 @@
         <v>70.06</v>
       </c>
       <c r="I496" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J496" s="2">
         <v>3</v>
@@ -21398,7 +21402,7 @@
       </c>
       <c r="F497" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G497" s="2" t="s">
         <v>21</v>
@@ -21407,7 +21411,7 @@
         <v>70.06</v>
       </c>
       <c r="I497" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J497" s="2">
         <v>4</v>
@@ -21440,7 +21444,7 @@
       </c>
       <c r="F498" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G498" s="2" t="s">
         <v>10</v>
@@ -21449,7 +21453,7 @@
         <v>140.12</v>
       </c>
       <c r="I498" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J498" s="2">
         <v>1</v>
@@ -21482,7 +21486,7 @@
       </c>
       <c r="F499" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G499" s="2" t="s">
         <v>10</v>
@@ -21491,7 +21495,7 @@
         <v>140.12</v>
       </c>
       <c r="I499" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J499" s="2">
         <v>2</v>
@@ -21524,7 +21528,7 @@
       </c>
       <c r="F500" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G500" s="2" t="s">
         <v>10</v>
@@ -21533,7 +21537,7 @@
         <v>140.12</v>
       </c>
       <c r="I500" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J500" s="2">
         <v>3</v>
@@ -21566,7 +21570,7 @@
       </c>
       <c r="F501" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G501" s="2" t="s">
         <v>10</v>
@@ -21575,7 +21579,7 @@
         <v>140.12</v>
       </c>
       <c r="I501" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J501" s="2">
         <v>4</v>
@@ -21608,7 +21612,7 @@
       </c>
       <c r="F502" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G502" s="2" t="s">
         <v>11</v>
@@ -21617,7 +21621,7 @@
         <v>280.25</v>
       </c>
       <c r="I502" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J502" s="2">
         <v>1</v>
@@ -21650,7 +21654,7 @@
       </c>
       <c r="F503" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G503" s="2" t="s">
         <v>11</v>
@@ -21659,7 +21663,7 @@
         <v>280.25</v>
       </c>
       <c r="I503" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J503" s="2">
         <v>2</v>
@@ -21692,7 +21696,7 @@
       </c>
       <c r="F504" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G504" s="2" t="s">
         <v>11</v>
@@ -21701,7 +21705,7 @@
         <v>280.25</v>
       </c>
       <c r="I504" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J504" s="2">
         <v>3</v>
@@ -21734,7 +21738,7 @@
       </c>
       <c r="F505" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G505" s="2" t="s">
         <v>11</v>
@@ -21743,7 +21747,7 @@
         <v>280.25</v>
       </c>
       <c r="I505" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J505" s="2">
         <v>4</v>
@@ -21776,7 +21780,7 @@
       </c>
       <c r="F506" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G506" s="2" t="s">
         <v>12</v>
@@ -21785,7 +21789,7 @@
         <v>560.49</v>
       </c>
       <c r="I506" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J506" s="2">
         <v>1</v>
@@ -21818,7 +21822,7 @@
       </c>
       <c r="F507" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G507" s="2" t="s">
         <v>12</v>
@@ -21827,7 +21831,7 @@
         <v>560.49</v>
       </c>
       <c r="I507" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J507" s="2">
         <v>2</v>
@@ -21860,7 +21864,7 @@
       </c>
       <c r="F508" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G508" s="2" t="s">
         <v>12</v>
@@ -21869,7 +21873,7 @@
         <v>560.49</v>
       </c>
       <c r="I508" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J508" s="2">
         <v>3</v>
@@ -21902,7 +21906,7 @@
       </c>
       <c r="F509" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G509" s="2" t="s">
         <v>12</v>
@@ -21911,7 +21915,7 @@
         <v>560.49</v>
       </c>
       <c r="I509" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J509" s="2">
         <v>4</v>
@@ -21944,7 +21948,7 @@
       </c>
       <c r="F510" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G510" s="2" t="s">
         <v>13</v>
@@ -21953,7 +21957,7 @@
         <v>1120.99</v>
       </c>
       <c r="I510" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J510" s="2">
         <v>1</v>
@@ -21986,7 +21990,7 @@
       </c>
       <c r="F511" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G511" s="2" t="s">
         <v>13</v>
@@ -21995,7 +21999,7 @@
         <v>1120.99</v>
       </c>
       <c r="I511" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J511" s="2">
         <v>2</v>
@@ -22028,7 +22032,7 @@
       </c>
       <c r="F512" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G512" s="2" t="s">
         <v>13</v>
@@ -22037,7 +22041,7 @@
         <v>1120.99</v>
       </c>
       <c r="I512" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J512" s="2">
         <v>3</v>
@@ -22070,7 +22074,7 @@
       </c>
       <c r="F513" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G513" s="2" t="s">
         <v>13</v>
@@ -22079,7 +22083,7 @@
         <v>1120.99</v>
       </c>
       <c r="I513" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J513" s="2">
         <v>4</v>
@@ -22112,7 +22116,7 @@
       </c>
       <c r="F514" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G514" s="2" t="s">
         <v>14</v>
@@ -22121,7 +22125,7 @@
         <v>2241.98</v>
       </c>
       <c r="I514" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J514" s="2">
         <v>1</v>
@@ -22154,7 +22158,7 @@
       </c>
       <c r="F515" s="2" t="str">
         <f t="shared" ref="F515:F578" si="8">_xlfn.CONCAT(D515, "+", E515, "+", I515)</f>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G515" s="2" t="s">
         <v>14</v>
@@ -22163,7 +22167,7 @@
         <v>2241.98</v>
       </c>
       <c r="I515" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J515" s="2">
         <v>2</v>
@@ -22196,7 +22200,7 @@
       </c>
       <c r="F516" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G516" s="2" t="s">
         <v>14</v>
@@ -22205,7 +22209,7 @@
         <v>2241.98</v>
       </c>
       <c r="I516" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J516" s="2">
         <v>3</v>
@@ -22238,7 +22242,7 @@
       </c>
       <c r="F517" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G517" s="2" t="s">
         <v>14</v>
@@ -22247,7 +22251,7 @@
         <v>2241.98</v>
       </c>
       <c r="I517" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J517" s="2">
         <v>4</v>
@@ -22280,7 +22284,7 @@
       </c>
       <c r="F518" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G518" s="2" t="s">
         <v>15</v>
@@ -22289,7 +22293,7 @@
         <v>4483.95</v>
       </c>
       <c r="I518" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J518" s="2">
         <v>1</v>
@@ -22322,7 +22326,7 @@
       </c>
       <c r="F519" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G519" s="2" t="s">
         <v>15</v>
@@ -22331,7 +22335,7 @@
         <v>4483.95</v>
       </c>
       <c r="I519" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J519" s="2">
         <v>2</v>
@@ -22364,7 +22368,7 @@
       </c>
       <c r="F520" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G520" s="2" t="s">
         <v>15</v>
@@ -22373,7 +22377,7 @@
         <v>4483.95</v>
       </c>
       <c r="I520" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J520" s="2">
         <v>3</v>
@@ -22406,7 +22410,7 @@
       </c>
       <c r="F521" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>A101+atra+GST+elevated</v>
+        <v>A101+atra+GST+increased</v>
       </c>
       <c r="G521" s="2" t="s">
         <v>15</v>
@@ -22415,7 +22419,7 @@
         <v>4483.95</v>
       </c>
       <c r="I521" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J521" s="2">
         <v>4</v>
@@ -22457,7 +22461,7 @@
         <v>0</v>
       </c>
       <c r="I522" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J522" s="2">
         <v>1</v>
@@ -22499,7 +22503,7 @@
         <v>0</v>
       </c>
       <c r="I523" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J523" s="2">
         <v>2</v>
@@ -22541,7 +22545,7 @@
         <v>0</v>
       </c>
       <c r="I524" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J524" s="2">
         <v>3</v>
@@ -22583,7 +22587,7 @@
         <v>0</v>
       </c>
       <c r="I525" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J525" s="2">
         <v>4</v>
@@ -22625,7 +22629,7 @@
         <v>17.52</v>
       </c>
       <c r="I526" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J526" s="2">
         <v>1</v>
@@ -22667,7 +22671,7 @@
         <v>17.52</v>
       </c>
       <c r="I527" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J527" s="2">
         <v>2</v>
@@ -22709,7 +22713,7 @@
         <v>17.52</v>
       </c>
       <c r="I528" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J528" s="2">
         <v>3</v>
@@ -22751,7 +22755,7 @@
         <v>17.52</v>
       </c>
       <c r="I529" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J529" s="2">
         <v>4</v>
@@ -22793,7 +22797,7 @@
         <v>35.03</v>
       </c>
       <c r="I530" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J530" s="2">
         <v>1</v>
@@ -22835,7 +22839,7 @@
         <v>35.03</v>
       </c>
       <c r="I531" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J531" s="2">
         <v>2</v>
@@ -22877,7 +22881,7 @@
         <v>35.03</v>
       </c>
       <c r="I532" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J532" s="2">
         <v>3</v>
@@ -22919,7 +22923,7 @@
         <v>35.03</v>
       </c>
       <c r="I533" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J533" s="2">
         <v>4</v>
@@ -22961,7 +22965,7 @@
         <v>70.06</v>
       </c>
       <c r="I534" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J534" s="2">
         <v>1</v>
@@ -23003,7 +23007,7 @@
         <v>70.06</v>
       </c>
       <c r="I535" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J535" s="2">
         <v>2</v>
@@ -23045,7 +23049,7 @@
         <v>70.06</v>
       </c>
       <c r="I536" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J536" s="2">
         <v>3</v>
@@ -23087,7 +23091,7 @@
         <v>70.06</v>
       </c>
       <c r="I537" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J537" s="2">
         <v>4</v>
@@ -23129,7 +23133,7 @@
         <v>140.12</v>
       </c>
       <c r="I538" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J538" s="2">
         <v>1</v>
@@ -23171,7 +23175,7 @@
         <v>140.12</v>
       </c>
       <c r="I539" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J539" s="2">
         <v>2</v>
@@ -23213,7 +23217,7 @@
         <v>140.12</v>
       </c>
       <c r="I540" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J540" s="2">
         <v>3</v>
@@ -23255,7 +23259,7 @@
         <v>140.12</v>
       </c>
       <c r="I541" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J541" s="2">
         <v>4</v>
@@ -23297,7 +23301,7 @@
         <v>280.25</v>
       </c>
       <c r="I542" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J542" s="2">
         <v>1</v>
@@ -23339,7 +23343,7 @@
         <v>280.25</v>
       </c>
       <c r="I543" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J543" s="2">
         <v>2</v>
@@ -23381,7 +23385,7 @@
         <v>280.25</v>
       </c>
       <c r="I544" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J544" s="2">
         <v>3</v>
@@ -23423,7 +23427,7 @@
         <v>280.25</v>
       </c>
       <c r="I545" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J545" s="2">
         <v>4</v>
@@ -23465,7 +23469,7 @@
         <v>560.49</v>
       </c>
       <c r="I546" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J546" s="2">
         <v>1</v>
@@ -23507,7 +23511,7 @@
         <v>560.49</v>
       </c>
       <c r="I547" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J547" s="2">
         <v>2</v>
@@ -23549,7 +23553,7 @@
         <v>560.49</v>
       </c>
       <c r="I548" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J548" s="2">
         <v>3</v>
@@ -23591,7 +23595,7 @@
         <v>560.49</v>
       </c>
       <c r="I549" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J549" s="2">
         <v>4</v>
@@ -23633,7 +23637,7 @@
         <v>1120.99</v>
       </c>
       <c r="I550" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J550" s="2">
         <v>1</v>
@@ -23675,7 +23679,7 @@
         <v>1120.99</v>
       </c>
       <c r="I551" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J551" s="2">
         <v>2</v>
@@ -23717,7 +23721,7 @@
         <v>1120.99</v>
       </c>
       <c r="I552" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J552" s="2">
         <v>3</v>
@@ -23759,7 +23763,7 @@
         <v>1120.99</v>
       </c>
       <c r="I553" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J553" s="2">
         <v>4</v>
@@ -23801,7 +23805,7 @@
         <v>2241.98</v>
       </c>
       <c r="I554" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J554" s="2">
         <v>1</v>
@@ -23843,7 +23847,7 @@
         <v>2241.98</v>
       </c>
       <c r="I555" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J555" s="2">
         <v>2</v>
@@ -23885,7 +23889,7 @@
         <v>2241.98</v>
       </c>
       <c r="I556" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J556" s="2">
         <v>3</v>
@@ -23927,7 +23931,7 @@
         <v>2241.98</v>
       </c>
       <c r="I557" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J557" s="2">
         <v>4</v>
@@ -23969,7 +23973,7 @@
         <v>4483.95</v>
       </c>
       <c r="I558" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J558" s="2">
         <v>1</v>
@@ -24011,7 +24015,7 @@
         <v>4483.95</v>
       </c>
       <c r="I559" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J559" s="2">
         <v>2</v>
@@ -24053,7 +24057,7 @@
         <v>4483.95</v>
       </c>
       <c r="I560" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J560" s="2">
         <v>3</v>
@@ -24095,7 +24099,7 @@
         <v>4483.95</v>
       </c>
       <c r="I561" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J561" s="2">
         <v>4</v>
@@ -24137,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="I562" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J562" s="2">
         <v>1</v>
@@ -24179,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="I563" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J563" s="2">
         <v>2</v>
@@ -24221,7 +24225,7 @@
         <v>0</v>
       </c>
       <c r="I564" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J564" s="2">
         <v>3</v>
@@ -24263,7 +24267,7 @@
         <v>0</v>
       </c>
       <c r="I565" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J565" s="2">
         <v>4</v>
@@ -24305,7 +24309,7 @@
         <v>17.52</v>
       </c>
       <c r="I566" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J566" s="2">
         <v>1</v>
@@ -24347,7 +24351,7 @@
         <v>17.52</v>
       </c>
       <c r="I567" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J567" s="2">
         <v>2</v>
@@ -24389,7 +24393,7 @@
         <v>17.52</v>
       </c>
       <c r="I568" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J568" s="2">
         <v>3</v>
@@ -24431,7 +24435,7 @@
         <v>17.52</v>
       </c>
       <c r="I569" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J569" s="2">
         <v>4</v>
@@ -24473,7 +24477,7 @@
         <v>35.03</v>
       </c>
       <c r="I570" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J570" s="2">
         <v>1</v>
@@ -24515,7 +24519,7 @@
         <v>35.03</v>
       </c>
       <c r="I571" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J571" s="2">
         <v>2</v>
@@ -24557,7 +24561,7 @@
         <v>35.03</v>
       </c>
       <c r="I572" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J572" s="2">
         <v>3</v>
@@ -24599,7 +24603,7 @@
         <v>35.03</v>
       </c>
       <c r="I573" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J573" s="2">
         <v>4</v>
@@ -24641,7 +24645,7 @@
         <v>70.06</v>
       </c>
       <c r="I574" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J574" s="2">
         <v>1</v>
@@ -24683,7 +24687,7 @@
         <v>70.06</v>
       </c>
       <c r="I575" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J575" s="2">
         <v>2</v>
@@ -24725,7 +24729,7 @@
         <v>70.06</v>
       </c>
       <c r="I576" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J576" s="2">
         <v>3</v>
@@ -24767,7 +24771,7 @@
         <v>70.06</v>
       </c>
       <c r="I577" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J577" s="2">
         <v>4</v>
@@ -24809,7 +24813,7 @@
         <v>140.12</v>
       </c>
       <c r="I578" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J578" s="2">
         <v>1</v>
@@ -24851,7 +24855,7 @@
         <v>140.12</v>
       </c>
       <c r="I579" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J579" s="2">
         <v>2</v>
@@ -24893,7 +24897,7 @@
         <v>140.12</v>
       </c>
       <c r="I580" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J580" s="2">
         <v>3</v>
@@ -24935,7 +24939,7 @@
         <v>140.12</v>
       </c>
       <c r="I581" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J581" s="2">
         <v>4</v>
@@ -24977,7 +24981,7 @@
         <v>280.25</v>
       </c>
       <c r="I582" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J582" s="2">
         <v>1</v>
@@ -25019,7 +25023,7 @@
         <v>280.25</v>
       </c>
       <c r="I583" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J583" s="2">
         <v>2</v>
@@ -25061,7 +25065,7 @@
         <v>280.25</v>
       </c>
       <c r="I584" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J584" s="2">
         <v>3</v>
@@ -25103,7 +25107,7 @@
         <v>280.25</v>
       </c>
       <c r="I585" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J585" s="2">
         <v>4</v>
@@ -25145,7 +25149,7 @@
         <v>560.49</v>
       </c>
       <c r="I586" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J586" s="2">
         <v>1</v>
@@ -25187,7 +25191,7 @@
         <v>560.49</v>
       </c>
       <c r="I587" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J587" s="2">
         <v>2</v>
@@ -25229,7 +25233,7 @@
         <v>560.49</v>
       </c>
       <c r="I588" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J588" s="2">
         <v>3</v>
@@ -25271,7 +25275,7 @@
         <v>560.49</v>
       </c>
       <c r="I589" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J589" s="2">
         <v>4</v>
@@ -25313,7 +25317,7 @@
         <v>1120.99</v>
       </c>
       <c r="I590" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J590" s="2">
         <v>1</v>
@@ -25355,7 +25359,7 @@
         <v>1120.99</v>
       </c>
       <c r="I591" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J591" s="2">
         <v>2</v>
@@ -25397,7 +25401,7 @@
         <v>1120.99</v>
       </c>
       <c r="I592" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J592" s="2">
         <v>3</v>
@@ -25439,7 +25443,7 @@
         <v>1120.99</v>
       </c>
       <c r="I593" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J593" s="2">
         <v>4</v>
@@ -25481,7 +25485,7 @@
         <v>2241.98</v>
       </c>
       <c r="I594" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J594" s="2">
         <v>1</v>
@@ -25523,7 +25527,7 @@
         <v>2241.98</v>
       </c>
       <c r="I595" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J595" s="2">
         <v>2</v>
@@ -25565,7 +25569,7 @@
         <v>2241.98</v>
       </c>
       <c r="I596" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J596" s="2">
         <v>3</v>
@@ -25607,7 +25611,7 @@
         <v>2241.98</v>
       </c>
       <c r="I597" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J597" s="2">
         <v>4</v>
@@ -25649,7 +25653,7 @@
         <v>4483.95</v>
       </c>
       <c r="I598" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J598" s="2">
         <v>1</v>
@@ -25691,7 +25695,7 @@
         <v>4483.95</v>
       </c>
       <c r="I599" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J599" s="2">
         <v>2</v>
@@ -25733,7 +25737,7 @@
         <v>4483.95</v>
       </c>
       <c r="I600" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J600" s="2">
         <v>3</v>
@@ -25775,7 +25779,7 @@
         <v>4483.95</v>
       </c>
       <c r="I601" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J601" s="2">
         <v>4</v>
@@ -25817,7 +25821,7 @@
         <v>0</v>
       </c>
       <c r="I602" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J602" s="2">
         <v>1</v>
@@ -25859,7 +25863,7 @@
         <v>0</v>
       </c>
       <c r="I603" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J603" s="2">
         <v>2</v>
@@ -25901,7 +25905,7 @@
         <v>0</v>
       </c>
       <c r="I604" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J604" s="2">
         <v>3</v>
@@ -25943,7 +25947,7 @@
         <v>0</v>
       </c>
       <c r="I605" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J605" s="2">
         <v>4</v>
@@ -25985,7 +25989,7 @@
         <v>17.52</v>
       </c>
       <c r="I606" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J606" s="2">
         <v>1</v>
@@ -26027,7 +26031,7 @@
         <v>17.52</v>
       </c>
       <c r="I607" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J607" s="2">
         <v>2</v>
@@ -26069,7 +26073,7 @@
         <v>17.52</v>
       </c>
       <c r="I608" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J608" s="2">
         <v>3</v>
@@ -26111,7 +26115,7 @@
         <v>17.52</v>
       </c>
       <c r="I609" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J609" s="2">
         <v>4</v>
@@ -26153,7 +26157,7 @@
         <v>35.03</v>
       </c>
       <c r="I610" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J610" s="2">
         <v>1</v>
@@ -26195,7 +26199,7 @@
         <v>35.03</v>
       </c>
       <c r="I611" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J611" s="2">
         <v>2</v>
@@ -26237,7 +26241,7 @@
         <v>35.03</v>
       </c>
       <c r="I612" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J612" s="2">
         <v>3</v>
@@ -26279,7 +26283,7 @@
         <v>35.03</v>
       </c>
       <c r="I613" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J613" s="2">
         <v>4</v>
@@ -26321,7 +26325,7 @@
         <v>70.06</v>
       </c>
       <c r="I614" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J614" s="2">
         <v>1</v>
@@ -26363,7 +26367,7 @@
         <v>70.06</v>
       </c>
       <c r="I615" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J615" s="2">
         <v>2</v>
@@ -26405,7 +26409,7 @@
         <v>70.06</v>
       </c>
       <c r="I616" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J616" s="2">
         <v>3</v>
@@ -26447,7 +26451,7 @@
         <v>70.06</v>
       </c>
       <c r="I617" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J617" s="2">
         <v>4</v>
@@ -26489,7 +26493,7 @@
         <v>140.12</v>
       </c>
       <c r="I618" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J618" s="2">
         <v>1</v>
@@ -26531,7 +26535,7 @@
         <v>140.12</v>
       </c>
       <c r="I619" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J619" s="2">
         <v>2</v>
@@ -26573,7 +26577,7 @@
         <v>140.12</v>
       </c>
       <c r="I620" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J620" s="2">
         <v>3</v>
@@ -26615,7 +26619,7 @@
         <v>140.12</v>
       </c>
       <c r="I621" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J621" s="2">
         <v>4</v>
@@ -26657,7 +26661,7 @@
         <v>280.25</v>
       </c>
       <c r="I622" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J622" s="2">
         <v>1</v>
@@ -26699,7 +26703,7 @@
         <v>280.25</v>
       </c>
       <c r="I623" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J623" s="2">
         <v>2</v>
@@ -26741,7 +26745,7 @@
         <v>280.25</v>
       </c>
       <c r="I624" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J624" s="2">
         <v>3</v>
@@ -26783,7 +26787,7 @@
         <v>280.25</v>
       </c>
       <c r="I625" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J625" s="2">
         <v>4</v>
@@ -26825,7 +26829,7 @@
         <v>560.49</v>
       </c>
       <c r="I626" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J626" s="2">
         <v>1</v>
@@ -26867,7 +26871,7 @@
         <v>560.49</v>
       </c>
       <c r="I627" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J627" s="2">
         <v>2</v>
@@ -26909,7 +26913,7 @@
         <v>560.49</v>
       </c>
       <c r="I628" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J628" s="2">
         <v>3</v>
@@ -26951,7 +26955,7 @@
         <v>560.49</v>
       </c>
       <c r="I629" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J629" s="2">
         <v>4</v>
@@ -26993,7 +26997,7 @@
         <v>1120.99</v>
       </c>
       <c r="I630" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J630" s="2">
         <v>1</v>
@@ -27035,7 +27039,7 @@
         <v>1120.99</v>
       </c>
       <c r="I631" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J631" s="2">
         <v>2</v>
@@ -27077,7 +27081,7 @@
         <v>1120.99</v>
       </c>
       <c r="I632" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J632" s="2">
         <v>3</v>
@@ -27119,7 +27123,7 @@
         <v>1120.99</v>
       </c>
       <c r="I633" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J633" s="2">
         <v>4</v>
@@ -27161,7 +27165,7 @@
         <v>2241.98</v>
       </c>
       <c r="I634" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J634" s="2">
         <v>1</v>
@@ -27203,7 +27207,7 @@
         <v>2241.98</v>
       </c>
       <c r="I635" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J635" s="2">
         <v>2</v>
@@ -27245,7 +27249,7 @@
         <v>2241.98</v>
       </c>
       <c r="I636" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J636" s="2">
         <v>3</v>
@@ -27287,7 +27291,7 @@
         <v>2241.98</v>
       </c>
       <c r="I637" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J637" s="2">
         <v>4</v>
@@ -27329,7 +27333,7 @@
         <v>4483.95</v>
       </c>
       <c r="I638" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J638" s="2">
         <v>1</v>
@@ -27371,7 +27375,7 @@
         <v>4483.95</v>
       </c>
       <c r="I639" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J639" s="2">
         <v>2</v>
@@ -27413,7 +27417,7 @@
         <v>4483.95</v>
       </c>
       <c r="I640" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J640" s="2">
         <v>3</v>
@@ -27455,7 +27459,7 @@
         <v>4483.95</v>
       </c>
       <c r="I641" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J641" s="2">
         <v>4</v>
